--- a/artifacts/recipes/new_data/allrecipescom/middle_eastern/middle_lebanese.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/middle_eastern/middle_lebanese.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699641579-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Lebanese Recipes</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699641584-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JQsxm6xAoc_K_rBRmrVTukg_5rg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(555x0:557x2):format(webp)/6118077-9523462ce6c54e02964d4abf88f392db.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8244/semolina-turmeric-cake-sfoof/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Sfoof (Lebanese Semolina Turmeric Cake)</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n12 \n\n\nYield:\n1 9-inch round cake"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups semolina flour\n\n\n½ cup all-purpose flour\n\n\n1 teaspoon ground turmeric\n\n\n1 ½ teaspoons baking powder\n\n\n1 ⅛ cups white sugar\n\n\n1 cup milk\n\n\n½ cup vegetable oil\n\n\n1 tablespoon pine nuts"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups semolina flour\n\n\n½ cup all-purpose flour\n\n\n1 teaspoon ground turmeric\n\n\n1 ½ teaspoons baking powder\n\n\n1 ⅛ cups white sugar\n\n\n1 cup milk\n\n\n½ cup vegetable oil\n\n\n1 tablespoon pine nuts'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease a 9-inch round baking pan."},{"recipe_directions":"In a small bowl, mix semolina, flour, turmeric and baking powder. Set aside."},{"recipe_directions":"In a large bowl, stir milk and sugar until sugar is dissolved. Add flour mixture and oil and beat with an electric beater at medium speed for 5 minutes. This step is essential, do not use any shortcuts."},{"recipe_directions":"Pour into a prepared 9-inch round pan. Sprinkle top with pine nuts."},{"recipe_directions":"Bake in the preheated oven until wooden pick inserted in center comes out dry, 25 to 35 minutes."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"188\nCalories\n\n\n10g \nFat\n\n\n24g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699641589-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gVJR_g9wFsMs5wZWXBq-SI5H-Sg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1133504-3ee5da4f77f245adaf5c9c9fc01ca3d9.jpg"
@@ -266,59 +603,55 @@
 Fattet Betenjan (Eggplant and Yogurt Salad)</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282755/fattet-betenjan-eggplant-and-yogurt-salad/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Fattet Betenjan (Eggplant and Yogurt Salad)</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 45 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5 cups water, or as needed\n\n\n2 tablespoons salt\n\n\n3 medium eggplants, peeled and cut into 1/2-inch cubes\n\n\n4 (6 inch) pita bread rounds\n\n\n1 cup vegetable oil for frying, or as needed\n\n\n3 ¼ cups plain yogurt\n\n\n¼ cup mayonnaise\n\n\n½ medium lemon, juiced\n\n\n3 cloves garlic, minced, or more to taste\n\n\n  salt and ground black pepper to taste\n\n\n2 tablespoons oil\n\n\n¼ cup sliced almonds\n\n\n1 head romaine lettuce, thinly sliced\n\n\n1 (29 ounce) can chickpeas, drained"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 cups water, or as needed\n\n\n2 tablespoons salt\n\n\n3 medium eggplants, peeled and cut into 1/2-inch cubes\n\n\n4 (6 inch) pita bread rounds\n\n\n1 cup vegetable oil for frying, or as needed\n\n\n3 ¼ cups plain yogurt\n\n\n¼ cup mayonnaise\n\n\n½ medium lemon, juiced\n\n\n3 cloves garlic, minced, or more to taste\n\n\n  salt and ground black pepper to taste\n\n\n2 tablespoons oil\n\n\n¼ cup sliced almonds\n\n\n1 head romaine lettuce, thinly sliced\n\n\n1 (29 ounce) can chickpeas, drained'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour water and 2 tablespoons salt into a large bowl. Add cubed eggplant and let sit for 30 minutes. Drain and place on paper towel-lines plates until completely dry, about 30 more minutes."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Chop pita bread into 1-inch cubes and place on a baking sheet."},{"recipe_directions":"Roast in the preheated oven, stirring occasionally, until golden, 8 to 10 minutes; do not burn. Remove from the oven and set aside."},{"recipe_directions":"Heat 1/2 inch oil in a large saucepan over medium heat. Working in batches, fry eggplant until golden, about 6 minutes per batch. Remove to paper towel-lined plates to drain."},{"recipe_directions":"Meanwhile, combine yogurt, mayonnaise, lemon juice, garlic, salt, and pepper in a large bowl. Cover and refrigerate until needed."},{"recipe_directions":"Heat 2 tablespoons oil in a small frying pan. Add almonds and cook until fragrant, about 1 to 2 minutes. Continue to cook, stirring often, until nicely brown and toasted, 3 to 4 minutes longer. Remove from the heat."},{"recipe_directions":"Place lettuce on a serving platter. Layer with eggplant, chickpeas, and roasted pita bread. Pour yogurt mixture over top and sprinkle with toasted almonds. Serve at room temperature or cold."},{"recipe_directions":"You could adjust the amounts of any of the ingredients to your liking. I sometimes add more chickpeas and almonds."},{"recipe_directions":"I always add the bread and yogurt right before serving to stop the bread getting soggy."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of salt water brine. The actual amount consumed will vary."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Eggplant"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"435\nCalories\n\n\n17g \nFat\n\n\n59g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699641596-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XWkrL56lD8xEsz4mtYrvtt28ATI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/994041-59a74783710c4426ab73b1d9af120bfd.jpg"
@@ -331,59 +664,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231471/green-beans-in-seasoned-tomato-sauce/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Green Beans in Seasoned Tomato Sauce</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1  onion, diced\n\n\n3 tablespoons chopped garlic, or to taste\n\n\n  salt to taste\n\n\n1 (28 ounce) can crushed tomatoes (such as San Marzano®)\n\n\n1 (12 ounce) bag thin green beans, trimmed\n\n\n1 teaspoon white sugar\n\n\n⅛ teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1  onion, diced\n\n\n3 tablespoons chopped garlic, or to taste\n\n\n  salt to taste\n\n\n1 (28 ounce) can crushed tomatoes (such as San Marzano®)\n\n\n1 (12 ounce) bag thin green beans, trimmed\n\n\n1 teaspoon white sugar\n\n\n⅛ teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a skillet over high heat; cook and stir onion, garlic, and salt in the hot oil until onion is softened and browned, about 15 minutes."},{"recipe_directions":"Mix tomatoes and green beans into onion mixture. Add sugar and cinnamon to mixture; bring to a boil, lower heat to medium-low, cover, and simmer until green beans are tender, 20 to 25 minutes."},{"recipe_directions":"Time to prep may take longer if you buy beans that haven't been cleaned yet."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Tomatoes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"72\nCalories\n\n\n4g \nFat\n\n\n10g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699641605-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FE_bSaqWb9ZWIUBnr_Jaawb0NhA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/6765819-5bc776eab02c4af7b1ee82cd9cc28195.jpg"
@@ -396,59 +725,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/227991/manaaeesh-flatbread/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Manaaeesh Flatbread</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 9 hrs 30 mins\n\n\nTotal Time:\n 10 hrs 5 mins\n\n\nServings:\n6 \n\n\nYield:\n1 9x13-inch flatbread"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (.25 ounce) package active dry yeast\n\n\n¾ cup warm water - 110 degrees F (43 degrees C)\n\n\n¼ cup olive oil\n\n\n2 cups all-purpose flour\n\n\n½ teaspoon kosher salt\n\n\n¼ cup olive oil, divided\n\n\n¼ cup za'atar\n\n\n¾ teaspoon kosher salt"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 (.25 ounce) package active dry yeast\n\n\n¾ cup warm water - 110 degrees F (43 degrees C)\n\n\n¼ cup olive oil\n\n\n2 cups all-purpose flour\n\n\n½ teaspoon kosher salt\n\n\n¼ cup olive oil, divided\n\n\n¼ cup za'atar\n\n\n¾ teaspoon kosher salt"}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix yeast with warm water in a large mixing bowl and allow to stand until a creamy layer of foam appears, about 10 minutes. Whisk in 1/4 cup olive oil, then gradually stir in flour and 1/2 teaspoon kosher salt."},{"recipe_directions":"Transfer dough to a floured surface and knead until smooth and just a little bit sticky, 10 to 12 minutes. Place dough into an oiled bowl and turn dough around in bowl to coat surface with oil; cover bowl and refrigerate dough overnight. (Dough should double in size.)"},{"recipe_directions":"Coat a 9x13-inch baking sheet generously with 2 tablespoons olive oil; place dough in the center of the baking sheet and flatten into a thick disk. Cover dough with plastic wrap and let double in size, about 1 1/2 hours."},{"recipe_directions":"Use your palms and fingers to gently press and stretch dough to the edges of the oiled baking sheet, making the flatbread as even in thickness as you can. With fingertips, make small indentations in the dough. Brush dough with remaining 2 tablespoons olive oil."},{"recipe_directions":"Stir za'atar and 3/4 teaspoon kosher salt together in a small bowl and sprinkle evenly over the flatbread. Let dough rest for 30 minutes uncovered."},{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Bake flatbread in the preheated oven until golden brown, 15 to 20 minutes."},{"recipe_directions":"A stand mixer can be easily used to mix and knead the dough."},{"recipe_directions":"Za'atar is a Middle Eastern spice blend usually made of a combination of sesame seeds, dried sumac, thyme, salt, oregano, and marjoram."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"Flat Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"322\nCalories\n\n\n19g \nFat\n\n\n34g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699641610-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/62U4cQ7KqbJ4o5xZPi60_r4-e_w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1683x0:1685x2):format(webp)/6247232-ff87ffa60bb54e8a9e4fbe8bd53ec046.jpg"
@@ -461,59 +786,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/269628/one-pot-lebanese-chicken-and-rice/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>One-Pot Lebanese Chicken and Rice</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons olive oil\n\n\n4  skinless, boneless chicken breasts\n\n\n4 ounces diced onion\n\n\n12 ounces ground beef\n\n\n1 tablespoon minced garlic\n\n\n2 teaspoons ground cinnamon\n\n\n1 teaspoon ground allspice\n\n\n¾ teaspoon salt\n\n\n¼ teaspoon ground cayenne pepper\n\n\n1 ½ cups long grain rice\n\n\n3 cups chicken broth\n\n\n2 tablespoons chopped fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons olive oil\n\n\n4  skinless, boneless chicken breasts\n\n\n4 ounces diced onion\n\n\n12 ounces ground beef\n\n\n1 tablespoon minced garlic\n\n\n2 teaspoons ground cinnamon\n\n\n1 teaspoon ground allspice\n\n\n¾ teaspoon salt\n\n\n¼ teaspoon ground cayenne pepper\n\n\n1 ½ cups long grain rice\n\n\n3 cups chicken broth\n\n\n2 tablespoons chopped fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Heat olive oil in a heavy, oven-safe skillet over high heat. Cook chicken breasts on both sides until golden brown, about 5 minutes per side. Remove chicken breasts from skillet and set aside. Add onion and ground beef to the skillet; cook until onions are starting to brown, about 5 minutes. Add garlic and cook for 1 to 2 minutes. Season with cinnamon, allspice, salt, and cayenne pepper. Cook and stir for 2 minutes."},{"recipe_directions":"Stir rice into the skillet until fully coated with oil and spices. Place chicken breasts on top of the rice and pour in broth. Cover skillet with a tight-fitting lid or aluminum foil."},{"recipe_directions":"Bake in the preheated oven until rice has absorbed all liquid, about 20 minutes. Remove from oven and sprinkle with parsley before serving."},{"recipe_directions":"A cast-iron skillet works best for this dish. You can also use ground lamb instead of beef."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"680\nCalories\n\n\n27g \nFat\n\n\n61g \nCarbs\n\n\n44g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699641615-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MNOw4xIgByvQRwv4UatqtElZlxU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1429022-44567c84d95a4a25aa3505e3f1b272ba.jpg"
@@ -526,59 +847,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/140412/jiddos-fatayer-sabanegh-spinach-triangles/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Jiddo's Fatayer Sabanegh (Spinach Triangles)</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr 30 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n 1 hr 45 mins\n\n\nServings:\n15 \n\n\nYield:\n15 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ teaspoons white sugar\n\n\n1 ½ teaspoons active dry yeast\n\n\n1 ¼ cups warm water (110 degrees F to 115 degrees F)\n\n\n1 ½ teaspoons salt\n\n\n2 tablespoons olive oil\n\n\n3 cups whole wheat flour\n\n\n3 pounds fresh spinach, rinsed and stems removed\n\n\n2 medium onions, finely chopped\n\n\n⅔ cup lemon juice\n\n\n4 cloves garlic, finely chopped\n\n\n2 tablespoons chopped fresh basil leaves\n\n\n2 tablespoons chopped fresh mint leaves\n\n\n¾ teaspoon garlic salt"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ teaspoons white sugar\n\n\n1 ½ teaspoons active dry yeast\n\n\n1 ¼ cups warm water (110 degrees F to 115 degrees F)\n\n\n1 ½ teaspoons salt\n\n\n2 tablespoons olive oil\n\n\n3 cups whole wheat flour\n\n\n3 pounds fresh spinach, rinsed and stems removed\n\n\n2 medium onions, finely chopped\n\n\n⅔ cup lemon juice\n\n\n4 cloves garlic, finely chopped\n\n\n2 tablespoons chopped fresh basil leaves\n\n\n2 tablespoons chopped fresh mint leaves\n\n\n¾ teaspoon garlic salt'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a small bowl, stir together yeast, sugar and hot water; set aside until bubbles form on the yeast's surface. Stir in salt and olive oil. Place flour in a large bowl, then stir in yeast mixture and bring mixture together to form a soft dough. Working on a lightly floured surface, use your hands to knead the dough until it's satiny smooth and soft, about 15 minutes. Cover dough with a clean towel and set aside to rest."},{"recipe_directions":"Coarsely chop the spinach. Bring a large pot of salted water to boil and add spinach. Cook spinach 2 minutes, or just until wilted; drain very well and return to the pot. Add onions, lemon juice, garlic, basil, mint, and garlic salt. Cook and stir spinach mixture 2 minutes more to blend the flavors."},{"recipe_directions":"Place a pizza stone in the oven and preheat to 450 degrees F (230 degrees C). Meanwhile, cut the dough into golf-ball size pieces and roll into 5-inch diameter disks about 1/4-inch thick. Place 1 tablespoon of spinach filling in the middle of each disk. Be sure to stir the spinach mixture frequently so the juice doesn't separate. Fold up three sides of the disk to make a triangle, leaving a small hole in the center to release steam while baking."},{"recipe_directions":"Bake 10 to15 minutes, or until golden brown. Remove and cool on racks."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"131\nCalories\n\n\n3g \nFat\n\n\n24g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699641620-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/l-xp4FGRaQCPh1MvnG6Bs5hbQ9E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1764x0:1766x2):format(webp)/6095290-968213b138944f638711745cf94bcd44.jpg"
@@ -591,59 +908,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/269331/lebanese-7-spices/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Lebanese 7 Spices</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon ground nutmeg\n\n\n1 tablespoon ground ginger\n\n\n1 tablespoon ground allspice\n\n\n1 tablespoon fenugreek seeds\n\n\n1 tablespoon freshly ground black pepper\n\n\n1 teaspoon ground cloves\n\n\n1 teaspoon cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon ground nutmeg\n\n\n1 tablespoon ground ginger\n\n\n1 tablespoon ground allspice\n\n\n1 tablespoon fenugreek seeds\n\n\n1 tablespoon freshly ground black pepper\n\n\n1 teaspoon ground cloves\n\n\n1 teaspoon cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine nutmeg, ginger, allspice, fenugreek, pepper, cloves, and cinnamon in an airtight container with a lid. Close and shake to mix spices together. Store in a cool, dark place."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"15\nCalories\n\n\n1g \nFat\n\n\n3g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699641627-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ASC6hDNBlrFCSEvlzwCDULW2Rac=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/869037-0d412758534c4a3ea45e545d96970a68.jpg"
@@ -654,59 +967,55 @@
 Lebanese Fatayer</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/284266/lebanese-fatayer/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Lebanese Fatayer</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 1 hr 10 mins\n\n\nTotal Time:\n 2 hrs 5 mins\n\n\nServings:\n20 \n\n\nYield:\n20 fatayers"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup hot water, divided\n\n\n1 teaspoon yeast\n\n\n2 cups all-purpose flour\n\n\n2 tablespoons powdered milk\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon olive oil\n\n\n½ teaspoon baking powder\n\n\n1 pinch salt"},{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1 medium onion, chopped\n\n\n1 (10 ounce) package frozen chopped spinach, thawed and drained\n\n\n  salt and ground black pepper to taste\n\n\n½ medium lemon, juiced"},{"recipe_ingredients":"1 teaspoon sesame seeds, or as needed\n\n\n1 large egg, beaten"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup hot water, divided\n\n\n1 teaspoon yeast\n\n\n2 cups all-purpose flour\n\n\n2 tablespoons powdered milk\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon olive oil\n\n\n½ teaspoon baking powder\n\n\n1 pinch salt'}, {'recipe_ingredients': '1 tablespoon olive oil\n\n\n1 medium onion, chopped\n\n\n1 (10 ounce) package frozen chopped spinach, thawed and drained\n\n\n  salt and ground black pepper to taste\n\n\n½ medium lemon, juiced'}, {'recipe_ingredients': '1 teaspoon sesame seeds, or as needed\n\n\n1 large egg, beaten'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix 1/3 cup hot water and yeast together in a small bowl. Let sit for 10 minutes."},{"recipe_directions":"Mix in flour, powdered milk, sugar, olive oil, baking powder, and salt while adding remaining water gradually to make a combined dough. Leave in a warm place to rise for about 1 hour."},{"recipe_directions":"While the dough is rising, prepare the stuffing: Heat olive oil in a pan. Add onion, then add spinach and stir-fry for a few minutes. Season with salt and pepper and sprinkle with lemon juice. Set aside to cool."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Take small portions of the risen dough and roll into small, flat circles. Fill each circle with about 1 teaspoon spinach mixture and fold into a triangle as follows: fold one edge of the circle to the middle, then the next, then fold the third edge over the top to shape a triangle. Repeat with remaining dough and filling. Brush each piece with egg and sprinkle with sesame seeds. Place on the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until golden brown, about 20 minutes."},{"recipe_directions":"You can substitute spinach mixture for a 2 tins of dill cream cheese!"},{"recipe_directions":"You can also fill them with ground beef or dill cream cheese if you want."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"64\nCalories\n\n\n1g \nFat\n\n\n11g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699641632-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/enKWHfwOfyllSp2d94gWsJ7bqxE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/997433-80bbe2af76024288a30bd205bd99f9b6.jpg"
@@ -718,59 +1027,55 @@
 Our 6 Best Fattoush Recipes</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/fattoush-salad-recipes/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Our 6 Best Fattoush Recipes</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fattoush is a much-loved Lebanese green salad that features crispy pieces of pita bread with vegetables and herbs such as cucumber, tomatoes, parsley, and mint. If you haven't made Middle Eastern food at home before, this fresh and easy Levantine dish is the perfect place to start. Find fabulous fattoush salad recipes and lemony fattoush salad dressings in this hand-picked collection — all of which are quick and easy to make, and have the perfect combination of color and crunch!"},{"recipe_directions":"This Middle Eastern salad is simply packed with flavor! It features radishes, cucumber, tomatoes, parsley, mint, and chunks of bread. This recipe calls for the traditional pita bread, but you can also try it with another flatbread in a pinch — such as naan or even focaccia; slice into cubes, drizzle with olive oil and toast under the broiler until golden and crunchy."},{"recipe_directions":"There are so many versions of fattoush salads throughout the Middle East. This version crumbles feta cheese on top of lettuce, tomato, cucumber and bell pepper. The crunchy vegetables are tossed in a lemon, garlic and sumac dressing; top with crispy pita bread croutons for a delicious summer appetizer."},{"recipe_directions":"Sliced romaine lettuce, tomatoes, cucumbers, pita bread pieces and herbs give this Levant-inspired salad a wonderful freshness. Add some sumac to the vinaigrette for added zing. This salad is perfect for sharing at a summer BBQ party or for a light meal any time of the year."},{"recipe_directions":"This version of the famous Lebanese salad uses toasted pita bread instead of pan-fried. It's a delicious dish that's easy to assemble in just 15 minutes. The dressing is flavored with sumac, which you should be able to find in larger supermarkets and Middle Eastern grocery stores. If you can't find it, try adding 1 tablespoon grated lemon zest instead."},{"recipe_directions":"This tasty fattoush salad with a fresh lemon dressing is sure to pack a punch! You could also try adding za'atar to the lemon dressing — it's a Lebanese spice mix that contains sumac, thyme, and sesame seeds."},{"recipe_directions":"Fattoush is an extremely popular, Middle Eastern salad of cucumbers, tomatoes, red onion, parsley, and mint, topped with pieces of crispy pita bread. This version has a lemon, garlic and sumac dressing. Just a bit of crumbled feta cheese adds a natural saltiness."},{"recipe_directions":"Find loads more recipes from the Levant and Middle East in our recipe collections, like this Middle Eastern Tomato Salad."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699641637-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FL3LfTlWbbu1WDUgrkOi5cKuyhI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(959x0:961x2):format(webp)/8456947-e516c1d293034cbc82ef24e76b59adf3.jpg"
@@ -783,59 +1088,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281128/toum-lebanese-garlic-spread/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Toum (Lebanese Garlic Spread)</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n26 \n\n\nYield:\n3 1/4 cups"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 heads  garlic, peeled\n\n\n1 tablespoon salt\n\n\n3 tablespoons lemon juice\n\n\n3 cups canola oil"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 heads  garlic, peeled\n\n\n1 tablespoon salt\n\n\n3 tablespoons lemon juice\n\n\n3 cups canola oil'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Put garlic cloves in a food processor with the cutting blade in place. Pulse until smooth. Add salt. Use a spatula to push garlic into the middle of the bowl. Pulse again on low. Use the spatula to push down garlic again."},{"recipe_directions":"Using the drizzle adapter in the food processor, slowly pour in 1 1/2 tablespoons lemon juice on low speed. Pour in 1 cup oil; spread will emulsify and start to turn white. Turn off the processor and scrape down the sides. Add remaining lemon juice on low speed. Slowly add remaining 2 cups oil, processing until spread is thick and creamy."},{"recipe_directions":"Transfer garlic spread to a storage bowl with a lid and refrigerate until ready to use."},{"recipe_directions":"Don't use olive oil. Its flavor alters the flavor of the spread."},{"recipe_directions":"The recipe calls for 2 heads of garlic. Depending on the size of your garlic cloves, you'll be looking for 15 to 25, enough to cover the bottom of your processor. You might not need the full 2 heads."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"235\nCalories\n\n\n26g \nFat\n\n\n2g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699641643-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1LUBgTUHVf0hR7T9vg4A-5Ws1oY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1152x0:1154x2):format(webp)/6100023-45278e6ba59242b2ba5484bb323ed1cf.jpg"
@@ -846,59 +1147,55 @@
 Rose Water White Coffee</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/269626/rose-water-white-coffee/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Rose Water White Coffee</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon rose water\n\n\n1 ½ cups hot water\n\n\n1 teaspoon coarse sugar crystals\n\n\n1  food grade rose petal"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon rose water\n\n\n1 ½ cups hot water\n\n\n1 teaspoon coarse sugar crystals\n\n\n1  food grade rose petal'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Divide rose water between 2 tea cups. Add equal amounts of hot water to the 2 cups. Add 1/2 the sugar crystals and 1/2 the rose petal to each cup. Stir and serve."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"8\nCalories\n\n\n2g \nCarbs"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699641650-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/--H7YfVVk7O-ZNb60gyu-7OoTMk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1116781-3c7191b8bab14686aec20ef7a69e2238.jpg"
@@ -911,59 +1208,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/272651/anise-sugar-cookies/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Anise Sugar Cookies</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n36 \n\n\nYield:\n3 dozen"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups all-purpose flour\n\n\n1 tablespoon anise seeds\n\n\n2 teaspoons baking powder\n\n\n½ tablespoon fennel seeds\n\n\n1 teaspoon baking soda\n\n\n1 cup corn oil\n\n\n1 cup white sugar\n\n\n3  eggs\n\n\n1 teaspoon vinegar\n\n\n3 tablespoons sesame seeds, or as needed (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups all-purpose flour\n\n\n1 tablespoon anise seeds\n\n\n2 teaspoons baking powder\n\n\n½ tablespoon fennel seeds\n\n\n1 teaspoon baking soda\n\n\n1 cup corn oil\n\n\n1 cup white sugar\n\n\n3  eggs\n\n\n1 teaspoon vinegar\n\n\n3 tablespoons sesame seeds, or as needed (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Line 2 baking sheets with parchment paper."},{"recipe_directions":"Mix flour, anise seeds, baking powder, fennel seeds, and baking soda together in a medium bowl."},{"recipe_directions":"Whisk oil, sugar, eggs, and vinegar together in a separate bowl. Pour over flour mixture and mix until dough comes together. Divide dough into small pieces and roll into short ropes. Join ends together to form rings."},{"recipe_directions":"Arrange cookie rings on the prepared baking sheets. Sprinkle sesame seeds on top."},{"recipe_directions":"Bake in the preheated oven until golden, 15 to 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"125\nCalories\n\n\n7g \nFat\n\n\n14g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699641658-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/sPyKmdcmT-Cw_fL7RjJAKZZMRiI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1402x0:1404x2):format(webp)/7802403-2fb8eee8cf5f4701b7ec191b5d9f8bc1.jpg"
@@ -976,59 +1269,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279215/instant-pot-lebanese-lentil-and-chard-soup/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Instant Pot Lebanese Lentil and Chard Soup</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons extra-virgin olive oil\n\n\n1 medium onion, chopped\n\n\n1  russet potato, cubed\n\n\n3  ribs celery, chopped\n\n\n4 cloves garlic, chopped, or more to taste\n\n\n1 small bunch cilantro, chopped, divided\n\n\n1 ½ teaspoons kosher salt\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon ground coriander\n\n\n¼ teaspoon ground cinnamon\n\n\n8 cups water\n\n\n1 ½ cups brown lentils\n\n\n1 bunch Swiss chard, stems removed and leaves sliced into thin ribbons\n\n\n2  lemons"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons extra-virgin olive oil\n\n\n1 medium onion, chopped\n\n\n1  russet potato, cubed\n\n\n3  ribs celery, chopped\n\n\n4 cloves garlic, chopped, or more to taste\n\n\n1 small bunch cilantro, chopped, divided\n\n\n1 ½ teaspoons kosher salt\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon ground coriander\n\n\n¼ teaspoon ground cinnamon\n\n\n8 cups water\n\n\n1 ½ cups brown lentils\n\n\n1 bunch Swiss chard, stems removed and leaves sliced into thin ribbons\n\n\n2  lemons'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Turn on a multi-functional pressure cooker (such as Instant Pot) and select Saute function. Heat olive oil in the pot. Add onion, potato, celery, and garlic; cook and stir until starting to soften, 3 to 5 minutes. Sprinkle 1/2 of the cilantro, salt, cumin, coriander, and cinnamon on top; stir until fragrant."},{"recipe_directions":"Pour in water and lentils. Close and lock the lid. Select high pressure according to manufacturer's instructions; set timer for 15 minutes. Allow 10 to 15 minutes for pressure to build."},{"recipe_directions":"Release pressure carefully using the quick-release method according to manufacturer's instructions, about 5 minutes. Unlock and remove the lid. Stir in chard; cover soup and let sit until chard wilts, about 5 minutes. Uncover and stir in juice of 1 lemon."},{"recipe_directions":"Taste and adjust seasoning. Garnish with remaining cilantro. Cut the second lemon into wedges and serve alongside."},{"recipe_directions":"Chop the chard stems and add them for extra crunch, or save them for a stir-fry or vegetable saute."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Lentil Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"202\nCalories\n\n\n4g \nFat\n\n\n33g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699641666-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UoQc96_iVxa0XjT01y0AZ05CaS0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3726318-4751c66d709c43bf852480826e1341a1.jpg"
@@ -1041,59 +1330,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254242/lebanese-fattoush-bread-salad/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Lebanese Fattoush (Bread Salad)</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n1 mins\n\n\nTotal Time:\n26 mins\n\n\nServings:\n4 \n\n\nYield:\n4 salads with dressing"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  pita bread\n\n\n1 head romaine lettuce, chopped\n\n\n4  radishes, diced\n\n\n1  English cucumber, sliced\n\n\n1  tomato, diced\n\n\n3  green onions, chopped\n\n\n2 cloves garlic, crushed (Optional)\n\n\n½ cup chopped fresh parsley\n\n\n¼ cup chopped fresh mint\n\n\n  salt and ground black pepper to taste"},{"recipe_ingredients":"¼ cup lemon juice\n\n\n¼ cup olive oil\n\n\n1 tablespoon ground sumac"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  pita bread\n\n\n1 head romaine lettuce, chopped\n\n\n4  radishes, diced\n\n\n1  English cucumber, sliced\n\n\n1  tomato, diced\n\n\n3  green onions, chopped\n\n\n2 cloves garlic, crushed (Optional)\n\n\n½ cup chopped fresh parsley\n\n\n¼ cup chopped fresh mint\n\n\n  salt and ground black pepper to taste'}, {'recipe_ingredients': '¼ cup lemon juice\n\n\n¼ cup olive oil\n\n\n1 tablespoon ground sumac'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Place pita bread on a baking sheet."},{"recipe_directions":"Bake in the preheated oven until the bread is a light brown, 5 to 7 minutes. Remove from the oven and allow to cool, 1 to 2 minutes. Break toasted bread into bite-size pieces."},{"recipe_directions":"Combine lettuce, radishes, cucumber, tomato, garlic, green onions, parsley, mint, and salt and pepper together in a bowl; toss until salad is well mixed."},{"recipe_directions":"Pour lemon juice, olive oil, and sumac into a salad dressing bottle with a lid; cover and shake until blended. Add dressing to salad and toss."},{"recipe_directions":"Garnish salad with toasted pita."},{"recipe_directions":"Small Lebanese cucumbers can be substituted for the English cucumber."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"241\nCalories\n\n\n14g \nFat\n\n\n26g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699641674-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/wCGXtCxj05X1Cvf-Z5x43EGgzys=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5369586-c57635be5a294f4d8490d646279aaa7f.jpg"
@@ -1106,59 +1391,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264351/mahalabia-lebanese-cardamom-pudding/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Mahalabia (Lebanese Cardamom Pudding)</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 3 hrs 30 mins\n\n\nTotal Time:\n 3 hrs 55 mins\n\n\nServings:\n5 \n\n\nYield:\n5 servings"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups milk\n\n\n6 tablespoons cornstarch\n\n\n¼ cup white sugar\n\n\n2 drops cardamom-flavored extract"},{"recipe_ingredients":"¼ cup water\n\n\n5 tablespoons white sugar\n\n\n¼  vanilla bean, split lengthwise and seeds scraped"},{"recipe_ingredients":"¼ cup unsalted pistachios, coarsely chopped\n\n\n1 tablespoon dried rose petals, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups milk\n\n\n6 tablespoons cornstarch\n\n\n¼ cup white sugar\n\n\n2 drops cardamom-flavored extract'}, {'recipe_ingredients': '¼ cup water\n\n\n5 tablespoons white sugar\n\n\n¼  vanilla bean, split lengthwise and seeds scraped'}, {'recipe_ingredients': '¼ cup unsalted pistachios, coarsely chopped\n\n\n1 tablespoon dried rose petals, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine 3/4 cup of the milk and cornstarch in a bowl and stir until smooth."},{"recipe_directions":"Pour remaining milk into a pot and stir in sugar and cardamom extract. Heat over low heat, stirring until sugar is fully dissolved. Whisk in cornstarch mixture and simmer until thickened, 5 to 10 minutes."},{"recipe_directions":"Pour milk mixture into 5 ramekins, cover, and cool to room temperature. Chill in the refrigerator for at least 3 hours."},{"recipe_directions":"Combine water, sugar, and vanilla seeds in a pot and bring to a boil over low heat. Stir until sugar is dissolved. Allow syrup to cool. Sprinkle each serving with pistachios and rose petals. Drizzle with 1 tablespoon syrup."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"214\nCalories\n\n\n5g \nFat\n\n\n39g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699641682-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Y4K2Dn_6fV6gUzawAuSNO3SsGOI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/9067956-4b287b9440ee4637accd8f9b2a0722d1.jpg"
@@ -1171,59 +1452,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/149752/lebanese-fattoush/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Lebanese Fattoush</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  lettuce leaves, chopped\n\n\n3  cabbage leaves, chopped\n\n\n2 small radishes, minced\n\n\n1 medium cucumber, diced\n\n\n1  red bell pepper, minced\n\n\n1  carrot, shredded\n\n\n¼ cup sweet corn kernels\n\n\n1 large tomato, finely diced\n\n\n1 small onion, sliced thin\n\n\n2 large cloves garlic, crushed\n\n\n12 sprigs parsley, minced\n\n\n12  mint leaves, minced\n\n\n¼ cup olive oil\n\n\n¼ cup pomegranate seeds (Optional)\n\n\n¼ cup pomegranate syrup\n\n\n2 (6 inch) pita bread rounds (Optional)\n\n\n2 cups vegetable oil for frying (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  lettuce leaves, chopped\n\n\n3  cabbage leaves, chopped\n\n\n2 small radishes, minced\n\n\n1 medium cucumber, diced\n\n\n1  red bell pepper, minced\n\n\n1  carrot, shredded\n\n\n¼ cup sweet corn kernels\n\n\n1 large tomato, finely diced\n\n\n1 small onion, sliced thin\n\n\n2 large cloves garlic, crushed\n\n\n12 sprigs parsley, minced\n\n\n12  mint leaves, minced\n\n\n¼ cup olive oil\n\n\n¼ cup pomegranate seeds (Optional)\n\n\n¼ cup pomegranate syrup\n\n\n2 (6 inch) pita bread rounds (Optional)\n\n\n2 cups vegetable oil for frying (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Toss together the lettuce, cabbage, radish, cucumber, red bell pepper, carrot, corn, tomato, onion, garlic, parsley, mint, olive oil, pomegranate seeds, and pomegranate syrup in a large bowl."},{"recipe_directions":"Heat oil in a deep-fryer or saucepan to 350 degrees F (175 degrees C). Fry the pita breads until golden in color. Remove to cool on paper towels. Crush the bread into small pieces; sprinkle over the salad."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"257\nCalories\n\n\n17g \nFat\n\n\n24g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699641688-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LtglWbeI3m9bbLnfFDE2ZsjabH0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1025269-2be4f7e929e64888b02b2f13fe8da69a.jpg"
@@ -1236,59 +1513,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/218646/namoora-basboosa/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Namoora (Basboosa)</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 50 mins\n\n\nServings:\n16 \n\n\nYield:\n16 servings"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon tahini (sesame seed paste)\n\n\n2 cups dry farina cereal\n\n\n1 ½ cups white sugar\n\n\n2 teaspoons baking powder\n\n\n1 cup plain yogurt\n\n\n1 tablespoon butter, softened\n\n\n16  blanched almond halves\n\n\n2 cups white sugar\n\n\n2 cups water\n\n\n1 teaspoon lemon juice\n\n\n1 tablespoon butter\n\n\n1 teaspoon orange flower water (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon tahini (sesame seed paste)\n\n\n2 cups dry farina cereal\n\n\n1 ½ cups white sugar\n\n\n2 teaspoons baking powder\n\n\n1 cup plain yogurt\n\n\n1 tablespoon butter, softened\n\n\n16  blanched almond halves\n\n\n2 cups white sugar\n\n\n2 cups water\n\n\n1 teaspoon lemon juice\n\n\n1 tablespoon butter\n\n\n1 teaspoon orange flower water (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Line a 9x13-inch glass baking dish with aluminum foil and generously butter the foil. Spread the tahini evenly over the bottom of the prepared pan in a thin layer."},{"recipe_directions":"Mix together farina cereal with 1 1/2 cup of sugar and baking powder in a bowl. Mix in the yogurt and 1 tablespoon of softened butter gently with your hands until the dough is smooth. Spread dough out into the prepared baking dish. Pat the surface smooth. Cover the dish with foil, and allow to stand at room temperature for 2 hours. With a sharp knife, cut the dough into 16 squares; push an almond half gently into the top of each square."},{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Bake in the preheated oven until the dessert is set and the top is lightly golden brown, about 30 minutes."},{"recipe_directions":"While the dessert is baking, make the syrup. Place 2 cups of sugar into a saucepan with the water, and bring to a boil over medium heat, stirring constantly to dissolve sugar. Stir in the lemon juice, and boil the syrup for 5 minutes; stir in butter and orange flower water until combined. Pour the hot syrup over the dessert as soon as it comes out of the oven. Let cool for 1 to 2 hours to let the syrup absorb before serving."},{"recipe_directions":"Dry farina is commonly sold in the US under the Cream of Wheat(R) brand."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"African"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"286\nCalories\n\n\n3g \nFat\n\n\n63g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699641693-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/l62WG7gypKmrlOtZrjUbXEzDcfQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/9138264_fattoush_kim-2000-59ce8b7068624bbfabc849c157fabaf1.jpg"
@@ -1300,59 +1573,55 @@
 10 Lebanese Salad and Side Dishes Celebrate Fresh Produce</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/lebanese-salad-recipes/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>10 Lebanese Salad and Side Dishes Celebrate Fresh Produce</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"These light and refreshing Lebanese-inspired salads and flavorful vegetable side dishes put fresh summer at the forefront. On warm summer evenings, they make great side dishes with grilled meats and fish or light dinners on their own with grilled pita bread. This collection featured classic Lebanese salads like fattoush and tabbouleh, plus radish salads, green bean sides, stuffed squash, and more."},{"recipe_directions":"\"The simple combination of peppery radishes, toasted walnuts, and fresh mint is satisfying and somehow greater than the sum of its parts,\" says nicholio, the recipe submitter. \"Inspired by an appetizer I enjoyed once at a Lebanese restaurant in Atlanta, it is prettiest when served immediately and tastes great with roasted meats and hearty grain salads. If you have leftovers, try tucking them into toasted pitas with a little goat cheese or feta.\""},{"recipe_directions":"This light Lebanese salad is a big favorite, with a snappy lemon and white wine vinegar dressing and crunchy fried pita chips for delightful texture."},{"recipe_directions":"This simple bulgur salad is \"light and flavorful and chock full of veggies that you can pull from your garden, like tomatoes, cucumbers, and green onions,\" says KITKATY. \"Add lots of parsley and mint and a nice splash of olive oil and lemon juice and that's it. Chill before serving to bring out the flavors.\""},{"recipe_directions":"Zucchini are stuffed with chopped top round steak and rice and simmered in a simple tomato sauce. \"Holy smokes, this is truly Lebanese comfort food!\" says Russ Neimy. \"Serve these with tabbouleh, fatayer, and stuffed grape leaves.\""},{"recipe_directions":"Another great summer salad! \"This authentic Lebanese salad recipe uses two unusual ingredients: sumac and purslane,\" says George, who submitted the recipe. \"Sumac, usually sold ground, is ground red berries and used in Middle Eastern, particularly Lebanese, cooking. Purslane is succulent with a lemony flavor, and makes a nice salad green. I find them at farmer's markets.\""},{"recipe_directions":"You'll simply fry cauliflower florets until golden brown and serve with a simple sauce of tahini, garlic, parsley, and lemon juice. \"This is a Lebanese dish that my mother's side of the family had at every get together and it was always the first thing gone!\" says BonBonChihuahuas."},{"recipe_directions":"Fava beans, chickpeas, and white beans combine with lemon juice and parsley. \"Quick, easy, and tasty,\" says slave2satan. \"Can be used as a side dish or a snack on it's own. Great as a salad topper. Good with sea salt kettle chips, or toast.\""},{"recipe_directions":"You'll fry cubed potatoes until golden brown and then quickly finish them in a skillet with cilantro, garlic, cumin, lemon juice and salt. \"A yummy Lebanese way of serving potatoes,\" says LEBANESE, who submitted the recipe. \"These go great with chicken or meat.\""},{"recipe_directions":"\"Tangy, zesty, garlicky lemon and olive oil flavors blend in this dressing that compliments salads that include some type of grilled chicken, shrimp, or fish and baked or fried pita chips in the place of croutons,\" says Laura, the recipe submitter. \"It is very tangy but absolutely yummy.\""},{"recipe_directions":"Green beans simmer with cinnamon-spiced crushed tomatoes and sautéed garlic and onion. This simple side is a variation on the Lebanese dish loubieh bel zeit. \"You can add lamb or ground beef as well,\" says Courtney. \"But we keep this vegetarian typically. I serve it over rice and vermicelli pilaf. So delicious!\""}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699641700-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/znSY61dmSHWNZfsNQGwWI1kIEa4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4529361-0d4675262ae14e8f8c50c9b89e79b702.jpg"
@@ -1364,59 +1633,55 @@
 8 Traditional Lebanese Dips and Spreads</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/lebanese-dip-and-spread-recipes/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>8 Traditional Lebanese Dips and Spreads</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"These Lebanese-inspired dips and spreads are perfect light bites for warm summer days no matter where you are — the Middle East, the Midwest, or anywhere in between. This collection featured classic Lebanese mezze dishes like labneh (the Lebanese cream cheese), muhammara (the roasted pepper and walnut spread), garlicky baba ghanoush, traditional hummus, and more."},{"recipe_directions":"\"This is the Lebanese version of cream cheese, a lot tastier and lower in calories,\" says LEBANESE. \"Serve on a plate, sprinkled with olive oil, olives, tomatoes, cucumbers and mint. Or simply spread it like cream cheese on pita bread.\""},{"recipe_directions":"This roasted red pepper and walnut spread is perfect with fresh pita bread. Garnish with toasted walnuts, a drizzle of olive oil, Aleppo pepper flakes, and chopped Italian parsley. \"This roasted red pepper and walnut spread is quite popular in the Middle East and you'll understand why when you make it and discover you can't stop eating it,\" says Chef John."},{"recipe_directions":"This simple Lebanese-style hummus is a classic combination of garbanzo beans, tahini, olive oil, lemon juice garlic, and cumin. Serve topped with paprika and fresh parsley.. \"I serve this at least once a week with a chicken or steak meal or just as a quick snack,\" says Reman9981. \"Learned from my late grandfather who was of Lebanese descent. Serve with fresh Arabic bread.\""},{"recipe_directions":"Here's one for the garlic lovers! \"This is a traditional Lebanese garlic dipping sauce,\" says Sahaj108. \"Not for the faint of heart! Keeps for weeks in the fridge. Serve at room temperature with Lebanese breads, hummus, and tabbouleh.\""},{"recipe_directions":"\"A traditional recipe for this eggplant dip,\" says IMANKAY. \"It consists of baked eggplant with garlic, lemon juice, and tahini sauce. Dip into this with pita bread and you have yourself a delicious-and-light appetizer.\""},{"recipe_directions":"This recipe transforms Greek yogurt, a pinch or two of salt, and olive oil into a super-versatile, silky cheese spread or dip. \"This is a Lebanese dish, excellent for dipping with vegetables or spreading on bread,\" says Baritone Bob. \"It can also be used as a topping for just about any dish.\""},{"recipe_directions":"To make your own tahini, you'll simply blend toasted sesame seeds, garlic, olive oil, and lemon juice into a creamy sauce. \"Tahini is served as a dip on its own or as a major component of hummus, baba ghanoush, and halva,\" says Zainab Pervaiz, the recipe submitter. \"Tahini sauce is also a popular topping for meat and vegetables in Middle Eastern cuisine. Made from toasted sesame seeds with a consistency similar to peanut butter. Make it as thick as you want.\""},{"recipe_directions":"Lebanese-style whipped garlic is \"intense and delicious, with an infinite number of applications,\" says POMPIER85, the recipe submitter. \"It's lovely spread on plain pita bread or used a dip for veggies.\""}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699641704-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/htEHn2kISEUnLLmiZC_Pp2Hj5j4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2023x0:2025x2):format(webp)/5451298-d4a42671f0034f87a7ea934a772c8aa4.jpg"
@@ -1429,59 +1694,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236328/lebanese-zaatar-zaatar-bread/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Lebanese Zaatar (Za'atar) Bread</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n40 \n\n\nYield:\n40 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups warm water\n\n\n1 (.25 ounce) package yeast\n\n\n1 teaspoon salt\n\n\n1 teaspoon white sugar\n\n\n8 cups all-purpose flour\n\n\n2 cups whole wheat flour, or more if needed\n\n\n2 cups olive oil\n\n\n1 cup corn oil\n\n\n2 cups fresh za'atar"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "3 cups warm water\n\n\n1 (.25 ounce) package yeast\n\n\n1 teaspoon salt\n\n\n1 teaspoon white sugar\n\n\n8 cups all-purpose flour\n\n\n2 cups whole wheat flour, or more if needed\n\n\n2 cups olive oil\n\n\n1 cup corn oil\n\n\n2 cups fresh za'atar"}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Mix water, yeast, salt, and sugar together in a large bowl. Add all-purpose flour, whole wheat flour, olive oil, and corn oil; mix using your hands, adding more whole wheat flour if needed, until dough holds together. Mix za'atar into dough until evenly incorporated (see notes)."},{"recipe_directions":"Shape dough, about 1/4 cup per piece, into rounds on a floured work surface. Arrange rounds on baking sheets."},{"recipe_directions":"Bake in the preheated oven until lightly browned, about 25 minutes."},{"recipe_directions":"You may substitute fresh oregano for the fresh za'atar, but use less."},{"recipe_directions":"If you use the dried spice blend or dried oregano, start with 2 tablespoons; adjust to taste."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"Flat Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"266\nCalories\n\n\n17g \nFat\n\n\n26g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699641707-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ip8f3b-WUmBwgSEgTwRntAnn-2w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/9218186-8f67d9f2434d444db020ce5d3ac5f6a4.jpg"
@@ -1494,59 +1755,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/284267/fatayer-lebanese-meat-pies/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Fatayer (Lebanese Meat Pies)</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n16 \n\n\nYield:\n16 meat pies"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n2 pounds round steak, cut into small pieces\n\n\n2 large onion, chopped\n\n\n½ cup snipped fresh parsley\n\n\n  salt and ground black pepper to taste\n\n\n2 (1 pound) loaves frozen bread dough, thawed\n\n\n1 tablespoon butter, melted"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n2 pounds round steak, cut into small pieces\n\n\n2 large onion, chopped\n\n\n½ cup snipped fresh parsley\n\n\n  salt and ground black pepper to taste\n\n\n2 (1 pound) loaves frozen bread dough, thawed\n\n\n1 tablespoon butter, melted'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Line a baking sheet with parchment paper."},{"recipe_directions":"Heat oil in a large skillet over medium heat. Add steak pieces, onions, parsley, salt, and pepper and cook until steak is browned on all sides, about 5 minutes. Remove from the heat."},{"recipe_directions":"Pat bread dough on a lightly floured surface into 4- to 5-inch rounds. Place about 2 tablespoons meat mixture on each dough round. Fold dough over the mixture to make a triangle. Pinch the edges of the dough together but make sure to leave the very center of the meat pie unsealed so steam can escape while cooking. Set on the prepared baking sheet. Repeat with remaining dough and meat mixture and cover with a clean kitchen towel. Let rise for 10 minutes."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Bake fatayer in the preheated oven until lightly browned, about 25 minutes."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"239\nCalories\n\n\n7g \nFat\n\n\n29g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699641710-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UVX3TWDv3MpJpSgix_6BW4l1xRw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/33875-e2f4784b1d02431cbff728695fcb33cc.jpg"
@@ -1559,59 +1816,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/34791/layali-libnan-lebanese-nights/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Layali Libnan (Lebanese Nights)</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 40 mins\n\n\nServings:\n15 \n\n\nYield:\n15 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 cups cold milk\n\n\n1 ½ cups semolina\n\n\n2  eggs\n\n\n3 tablespoons rose water"},{"recipe_ingredients":"4 cups white sugar\n\n\n2 ¼ cups water\n\n\n¼ teaspoon lemon juice"},{"recipe_ingredients":"1 cup whipping cream\n\n\n1 tablespoon white sugar\n\n\n⅓ cup finely chopped pistachio nuts"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 cups cold milk\n\n\n1 ½ cups semolina\n\n\n2  eggs\n\n\n3 tablespoons rose water'}, {'recipe_ingredients': '4 cups white sugar\n\n\n2 ¼ cups water\n\n\n¼ teaspoon lemon juice'}, {'recipe_ingredients': '1 cup whipping cream\n\n\n1 tablespoon white sugar\n\n\n⅓ cup finely chopped pistachio nuts'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour the milk into a large saucepan and bring to a boil over medium-high heat. Reduce the heat, and slowly pour in the semolina in a steady stream, stirring continuously. Continue to stir and cook until the mixture thickens and boils for 1 to 2 minutes."},{"recipe_directions":"Remove the pan from the heat and stir in the eggs and rose water. Pour the mixture into a 9x13 inch serving dish, or individual dishes. Allow the pudding to cool slightly, then cover with plastic wrap directly on the top. Refrigerate, covered, for at least 5 hours or overnight."},{"recipe_directions":"Heat 1/2 cup of the sugar and 2 tablespoons of water in a heavy bottomed saucepan over medium-high heat. Stir to dissolve the sugar, then cook until the mixture turns golden brown. Immediately remove from the heat and stir in the rest of the water. Don't worry if the mixture bubbles and hardens a bit, it will dissolve. Return the pan to the stove, and stir in the remaining sugar until dissolved. Add the lemon juice, to the sugar syrup, and bring to a boil. Simmer for 10 minutes. Remove from heat, cover and chill. The syrup will keep for a month if refrigerated in a sealed container."},{"recipe_directions":"To serve, whip the whipping cream with sugar until stiff peaks form. Spread a thin layer of whipped cream over the pudding. Sprinkle with chopped nuts. Cut into squares, and serve with caramel syrup poured around it."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"415\nCalories\n\n\n11g \nFat\n\n\n74g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699641714-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rdp0mYe2TWNVn3XbuJ8BUMRMmdI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/969628-90b510bb6dd1458584630e33fc6559fd.jpg"
@@ -1624,59 +1877,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222676/lebanese-bean-salad/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Lebanese Bean Salad</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 10 mins\n\n\nServings:\n5"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can fava beans, drained and rinsed\n\n\n1 (15 ounce) can chickpeas, drained and rinsed\n\n\n1 (15.5 ounce) can white beans, drained and rinsed\n\n\n¼ cup chopped flat leaf parsley, or more to taste\n\n\n3 tablespoons olive oil\n\n\n2 cloves garlic, minced\n\n\n1  lemon, juiced\n\n\n  kosher salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can fava beans, drained and rinsed\n\n\n1 (15 ounce) can chickpeas, drained and rinsed\n\n\n1 (15.5 ounce) can white beans, drained and rinsed\n\n\n¼ cup chopped flat leaf parsley, or more to taste\n\n\n3 tablespoons olive oil\n\n\n2 cloves garlic, minced\n\n\n1  lemon, juiced\n\n\n  kosher salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix fava beans, chickpeas, white beans, parsley, olive oil, garlic, and lemon juice together in a bowl. Season with salt and pepper. Chill and marinate in the refrigerator for at least 2 hours before serving."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Beans"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"312\nCalories\n\n\n9g \nFat\n\n\n45g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699641719-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TH5MjbehZp4AWElPrx25wS7iEbk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4466833-005c5337420b4c92ac026bf5c3ee4143.jpg"
@@ -1689,59 +1938,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257046/sfouf-lebanese-turmeric-cake/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Sfouf (Lebanese Turmeric Cake)</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n16 \n\n\nYield:\n1 9x13-inch baking pan"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon tahini\n\n\n1 ½ cups boiling water\n\n\n2 teaspoons whole anise seeds\n\n\n1 ½ cups white sugar\n\n\n3 cups all-purpose flour\n\n\n2 teaspoons ground turmeric\n\n\n1 ½ teaspoons baking powder\n\n\n1 ¼ teaspoons anise seed powder\n\n\n½ cup vegetable oil\n\n\n½ cup unsalted butter, melted\n\n\n2 tablespoons pine nuts"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon tahini\n\n\n1 ½ cups boiling water\n\n\n2 teaspoons whole anise seeds\n\n\n1 ½ cups white sugar\n\n\n3 cups all-purpose flour\n\n\n2 teaspoons ground turmeric\n\n\n1 ½ teaspoons baking powder\n\n\n1 ¼ teaspoons anise seed powder\n\n\n½ cup vegetable oil\n\n\n½ cup unsalted butter, melted\n\n\n2 tablespoons pine nuts'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 325 degrees F (165 degrees C). Grease a 9x13-inch baking pan with tahini."},{"recipe_directions":"Combine boiling water and anise seeds in a glass measuring cup; let steep, about 5 minutes. Strain into a bowl; stir in sugar until dissolved. Discard anise seeds."},{"recipe_directions":"Mix flour, turmeric, baking powder, and anise seed powder together in a bowl. Make a well in the center; mix in oil and butter. Stir in sweetened anise water until batter is the consistency of thick yogurt."},{"recipe_directions":"Pour batter into the prepared baking pan. Score top into diamond shapes with the tip of a knife; place 1 pine nut in the center of each diamond."},{"recipe_directions":"Bake in the preheated oven until top is lightly browned, about 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"283\nCalories\n\n\n14g \nFat\n\n\n38g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699641723-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zHyrs_tlWYCFYxNSSqgAf0m1Nn8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(324x0:326x2):format(webp)/102407877-meatballs-and-labneh-meredith-a70ca506a1ef45b3ad60d0639cf6ff3e.jpg"
@@ -1753,59 +1998,55 @@
 6 Delicious Ways to Love Labneh, the Silky Lebanese Cheese</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/article/delicious-ways-to-use-labneh/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>6 Delicious Ways to Love Labneh, the Silky Lebanese Cheese</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Labneh is a silky, creamy Lebanese cheese that goes with just about all of your favorite Mediterranean-inspired cuisine. You can easily make your own labneh from just a few simple ingredients: Greek yogurt, olive oil, and a couple pinches of salt. But whether you've made your own or bought it from the market, you'll love labneh's silky texture, and bright, tart flavors — and you'll want to enjoy it on absolutely everything. Here are a few places to start:"},{"recipe_directions":"1. Spread it on toast for a zingy morning treat. Add mashed avocado and a sprinkle of flake salt for a breakfast with great taste and satisfaction staying power."},{"recipe_directions":"2. Connect with labneh's Middle Eastern origins by using it to top warmed pita bread, drizzling it with good-quality olive oil and dusting with a Lebanese spice blend."},{"recipe_directions":"3. Make a labneh sandwich, adding leftover grilled meat or fish, mint leaves, chopped olives and a shake or two of za'atar, a spice blend made from thyme, sesame seeds, and ground sumac powder."},{"recipe_directions":"4. Mound finished labneh in a bowl, then use the back of a spoon to make a swirl pattern on top. Pour on a generous splash of good-quality olive oil and add a sprinkling of Dukkah, the spice blend made with hazelnuts, sesame seeds, coriander, and cumin. Dip with raw veggies, crackers, or pita bread toasts."},{"recipe_directions":"5. Let the yogurt drain until it's fairly firm, then roll into little balls, sprinkle with chopped herbs. Arrange on a platter and you've got a standout appetizer, called \"labneh korat\" or \"labneh makbouseh\" in Lebanese (If you're planning on serving these at a party, it's a good rule of thumb that each quart of yogurt will produce about six ounces of labneh)."},{"recipe_directions":"6. Store labneh balls in a mason jar, cover them with olive oil, add a few herbs, and you're ready to go with an impressive hostess gift."},{"recipe_directions":"Don't miss our collection of Lebanese Recipes."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Kitchen Tips"},{"recipe_tags":"How To"},{"recipe_tags":"Global Kitchen"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699641726-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/V32ZT20VMlwh6bnC0MDylKY7Ft8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Kafta-BBQ-France-C-1x1-1-2000-de37493d0a8b4126a574ee80c0bdf8f2.jpg"
@@ -1819,59 +2060,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/64519/kafta/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Kafta (BBQ)</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds lean ground beef\n\n\n1 medium onion, grated\n\n\n½ cup finely chopped fresh parsley\n\n\n¼ teaspoon cayenne pepper\n\n\n¼ teaspoon ground allspice\n\n\n1 teaspoon salt, or to taste\n\n\n¼ teaspoon black pepper\n\n\n  6 wooden or metal skewers"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds lean ground beef\n\n\n1 medium onion, grated\n\n\n½ cup finely chopped fresh parsley\n\n\n¼ teaspoon cayenne pepper\n\n\n¼ teaspoon ground allspice\n\n\n1 teaspoon salt, or to taste\n\n\n¼ teaspoon black pepper\n\n\n  6 wooden or metal skewers'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for high heat. If using wooden skewers, soak in water."},{"recipe_directions":"In a large bowl, mix together the ground beef, onion, parsley, cayenne, allspice, salt and pepper until evenly blended. Divide into 6 portions, and press around one end of the skewers to form a log shape approximately 1 inch thick and 6 inches long."},{"recipe_directions":"Grill for 10 to 15 minutes, turning occasionally, until meat is no longer pink."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"227\nCalories\n\n\n14g \nFat\n\n\n2g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699641731-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2yilBKIzYAzz5nOUsD7Eh11MWiU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/593781-f767da5bc5c4482ca0beb232f030742b.jpg"
@@ -1884,59 +2121,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/201182/kibbee-lebanese-style/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Kibbee Lebanese Style</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup bulgur\n\n\n½ cup hot water\n\n\n½ teaspoon dried mint\n\n\n¼ teaspoon ground allspice\n\n\n¼ teaspoon ground black pepper\n\n\n⅛ teaspoon ground cinnamon\n\n\n¼ teaspoon salt\n\n\n1  onion, minced\n\n\n2 tablespoons chopped fresh parsley\n\n\n1 pound ground lamb\n\n\n2 tablespoons pine nuts"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup bulgur\n\n\n½ cup hot water\n\n\n½ teaspoon dried mint\n\n\n¼ teaspoon ground allspice\n\n\n¼ teaspoon ground black pepper\n\n\n⅛ teaspoon ground cinnamon\n\n\n¼ teaspoon salt\n\n\n1  onion, minced\n\n\n2 tablespoons chopped fresh parsley\n\n\n1 pound ground lamb\n\n\n2 tablespoons pine nuts'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an oven to 350 degrees F (175 degrees C). Grease an 8 inch square baking dish."},{"recipe_directions":"Soak bulgur in hot water until the bulgur expands and cools, about 10 minutes. Place the bulgur, mint, allspice, pepper, cinnamon, salt, onion, parsley, and lamb in a food processor. Process until well mixed, about 1 minute. Divide the lamb mixture and layer half in the baking dish, creating a large patty. Sprinkle pine nuts over the meat, then layer the remaining lamb on top, patting firmly. Cut the kibbee into 1 1/2 inch squares."},{"recipe_directions":"Bake in the preheated oven until the lamb is no longer pink in the middle, 30 to 35 minutes. An instant-read thermometer inserted into the center should read 160 degrees F (70 degrees C)."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"417\nCalories\n\n\n29g \nFat\n\n\n17g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699641734-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UXKY5Dkt85CHjjAh6uJKuLNvSYg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(799x0:801x2):format(webp)/7513637-7e3355b0dbf94925b8372c86fe906687.jpg"
@@ -1949,59 +2182,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/267016/aunt-louises-baked-kibbeh/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Aunt Louise's Baked Kibbeh</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 45 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup bulgur wheat\n\n\n2 cups boiling water\n\n\n½ cup finely chopped onion, divided\n\n\n2 teaspoons salt, divided\n\n\n1 ½ teaspoons dried basil\n\n\n½ teaspoon ground black pepper\n\n\n1 pound ground beef\n\n\n1 pound ground lamb, divided\n\n\n½ cup pine nuts\n\n\n¼ stick salted butter\n\n\n½ cup cherry tomatoes, or to taste\n\n\n¼ cup fresh mint leaves, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup bulgur wheat\n\n\n2 cups boiling water\n\n\n½ cup finely chopped onion, divided\n\n\n2 teaspoons salt, divided\n\n\n1 ½ teaspoons dried basil\n\n\n½ teaspoon ground black pepper\n\n\n1 pound ground beef\n\n\n1 pound ground lamb, divided\n\n\n½ cup pine nuts\n\n\n¼ stick salted butter\n\n\n½ cup cherry tomatoes, or to taste\n\n\n¼ cup fresh mint leaves, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place bulgur into a large bowl and cover with boiling water. Let stand until water is absorbed, about 30 minutes."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Stir 1/4 cup onion, 1 1/2 teaspoons salt, basil, and pepper into softened bulgur. Add ground beef and 1/2 pound lamb; mix well. Divide mixture into two portions. Pat one portion over the bottom of a 12x7-inch baking dish."},{"recipe_directions":"Place remaining portion onto waxed paper and pat into 12x7-inch rectangle on a piece of waxed paper; set aside."},{"recipe_directions":"Cook and stir remaining 1/4 cup onion and 1/2 pound lamb in a skillet until browned, about 5 minutes. Drain excess grease from the skillet. Stir in pine nuts and remaining 1/2 teaspoon salt. Spoon over meat layer in the baking dish."},{"recipe_directions":"Invert the second meat layer over the filling; peel off and discard waxed paper. Score the top layer into diamond shapes by cutting diagonally in both directions, leaving about 3 inches between the cuts. Press a small dab of butter into the middle of each diamond."},{"recipe_directions":"Bake in the preheated oven until golden brown, about 40 minutes. An instant-read thermometer inserted into the center should read at least 160 degrees F (71 degrees C). Garnish with cherry tomatoes and mint."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"364\nCalories\n\n\n23g \nFat\n\n\n16g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699641739-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/N4REuEFmczZJPjhMPU1piaFLwPY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/997430-d7d4c45bb62443d78c5bcc99ce64fd93.jpg"
@@ -2014,59 +2243,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231472/kibby-kibby-bel-saneeya/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Kibby (Kibby-Bel-Saneeya)</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n25 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup cracked wheat\n\n\n1 pound ground beef\n\n\n1 small onion, chopped\n\n\n1 tablespoon lemon juice\n\n\n2 teaspoons ground cinnamon\n\n\n  salt and ground black pepper to taste\n\n\n1 tablespoon butter, cut into small pieces (Optional)\n\n\n½ cup pine nuts"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup cracked wheat\n\n\n1 pound ground beef\n\n\n1 small onion, chopped\n\n\n1 tablespoon lemon juice\n\n\n2 teaspoons ground cinnamon\n\n\n  salt and ground black pepper to taste\n\n\n1 tablespoon butter, cut into small pieces (Optional)\n\n\n½ cup pine nuts'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Soak wheat in a bowl of warm water until water is slightly absorbed, about 25 minutes. Drain and squeeze out excess moisture."},{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease a 10x14-inch baking dish."},{"recipe_directions":"Mix soaked wheat, ground beef, onion, lemon juice, cinnamon, salt, and black pepper together in a bowl. Spread mixture in the prepared baking dish; top with butter and pine nuts."},{"recipe_directions":"Bake in the preheated oven until ground beef is no longer pink, about 25 minutes. Turn on oven's broiler; broil until top is browned, 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"439\nCalories\n\n\n26g \nFat\n\n\n27g \nCarbs\n\n\n28g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699641743-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BfjUluhc4jwFF2FG8WmLHosp_6E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/688595-c3c4bbf394cd49c1ae010cfb6261b39d.jpg"
@@ -2079,59 +2304,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/88233/lebanese-donair/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Lebanese Donair</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n50 mins\n\n\nAdditional Time:\n 4 hrs\n\n\nTotal Time:\n 5 hrs 20 mins\n\n\nServings:\n7"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 ¼ pounds boneless top round steak, sliced very thin\n\n\n2 large tomatoes, coarsely chopped\n\n\n½ cup red wine vinegar\n\n\n½ cup olive oil\n\n\n¼ cup fresh lemon juice\n\n\n1 teaspoon allspice\n\n\n1 clove garlic, minced\n\n\n½ teaspoon ground cinnamon\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon cardamom\n\n\n  salt to taste"},{"recipe_ingredients":"1 bunch finely chopped fresh parsley\n\n\n1 large sweet onion, finely chopped\n\n\n⅓ cup olive oil\n\n\n3 tablespoons fresh lemon juice"},{"recipe_ingredients":"1 cup tahini (sesame-seed paste)\n\n\n½ cup fresh lemon juice\n\n\n½ cup water\n\n\n2 cloves garlic, minced\n\n\n  salt to taste"},{"recipe_ingredients":"7 (6 inch) pita bread rounds\n\n\n3 large tomatoes, coarsely chopped"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 ¼ pounds boneless top round steak, sliced very thin\n\n\n2 large tomatoes, coarsely chopped\n\n\n½ cup red wine vinegar\n\n\n½ cup olive oil\n\n\n¼ cup fresh lemon juice\n\n\n1 teaspoon allspice\n\n\n1 clove garlic, minced\n\n\n½ teaspoon ground cinnamon\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon cardamom\n\n\n  salt to taste'}, {'recipe_ingredients': '1 bunch finely chopped fresh parsley\n\n\n1 large sweet onion, finely chopped\n\n\n⅓ cup olive oil\n\n\n3 tablespoons fresh lemon juice'}, {'recipe_ingredients': '1 cup tahini (sesame-seed paste)\n\n\n½ cup fresh lemon juice\n\n\n½ cup water\n\n\n2 cloves garlic, minced\n\n\n  salt to taste'}, {'recipe_ingredients': '7 (6 inch) pita bread rounds\n\n\n3 large tomatoes, coarsely chopped'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place sliced beef into a flat, oven-proof baking dish. Stir together tomatoes, vinegar, olive oil, lemon juice, allspice, garlic, cinnamon, black pepper, cardamom, and salt in a bowl until well blended. Pour over beef, turning slices to coat evenly. Cover and refrigerate for 4 hours."},{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C)."},{"recipe_directions":"Uncover the baking dish and cook beef in the preheated oven until meat is no longer pink, about 50 minutes. Allow to cool slightly while you make salad and sauce."},{"recipe_directions":"Make salad: Stir together parsley, onion, olive oil, and lemon juice in a bowl until combined."},{"recipe_directions":"Make sauce: Mix together tahini, lemon juice, water, and garlic in a bowl until smooth. Season with salt."},{"recipe_directions":"Place pita bread rounds on serving plates. Spoon beef slices down the center of each pita. Top with salad, sauce, and tomatoes. Roll up the sides of pita bread around filling to serve."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"990\nCalories\n\n\n65g \nFat\n\n\n48g \nCarbs\n\n\n58g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699641747-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -2145,59 +2366,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/83246/cilantro-and-garlic-potatoes/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Cilantro and Garlic Potatoes</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 quart oil for frying, or as needed\n\n\n4 large potatoes, cubed\n\n\n1 teaspoon vegetable oil\n\n\n2 cups chopped fresh cilantro\n\n\n4 cloves garlic, minced\n\n\n1 tablespoon fresh lemon juice\n\n\n½ teaspoon cumin\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 quart oil for frying, or as needed\n\n\n4 large potatoes, cubed\n\n\n1 teaspoon vegetable oil\n\n\n2 cups chopped fresh cilantro\n\n\n4 cloves garlic, minced\n\n\n1 tablespoon fresh lemon juice\n\n\n½ teaspoon cumin\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat 1 quart oil in a deep fryer to 375 degrees F (190 degrees C)."},{"recipe_directions":"Fry potatoes in hot oil until golden brown, about 8 minutes. Drain on paper towels."},{"recipe_directions":"Meanwhile, heat 1 teaspoon oil in a large skillet over medium heat. Add cilantro and garlic; cook and stir for about 5 minutes. Add drained potatoes, lemon juice, cumin, and salt; stir until well combined."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"250\nCalories\n\n\n12g \nFat\n\n\n33g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699641750-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/W7Mt3knBu9WaCOgFLLgGVO9ZsdU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(399x0:401x2):format(webp)/4529361-muhammara-roasted-pepper-walnut-spread-Chef-John-1x1-1-e8fe9baf4c374204b470d4846eba0d8b.jpg"
@@ -2211,59 +2428,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258803/muhammara-roasted-pepper-walnut-spread/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Muhammara (Roasted Pepper &amp; Walnut Spread)</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 tablespoons olive oil, divided\n\n\n1 ¼ cups raw walnut halves\n\n\n⅓ cup fresh bread crumbs\n\n\n1 cup fire-roasted red bell peppers - peeled, seeded, coarsely chopped\n\n\n2 garlic cloves, crushed\n\n\n2 tablespoons lemon juice\n\n\n2 teaspoons pomegranate molasses\n\n\n1 teaspoon salt, plus more if needed\n\n\n1 teaspoon paprika\n\n\n1 teaspoon Aleppo pepper flakes or other red pepper flakes, plus a pinch or so for garnish\n\n\n½ teaspoon cumin\n\n\n½ teaspoon cayenne pepper\n\n\n1 tablespoon chopped Italian parsley for garnish"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 tablespoons olive oil, divided\n\n\n1 ¼ cups raw walnut halves\n\n\n⅓ cup fresh bread crumbs\n\n\n1 cup fire-roasted red bell peppers - peeled, seeded, coarsely chopped\n\n\n2 garlic cloves, crushed\n\n\n2 tablespoons lemon juice\n\n\n2 teaspoons pomegranate molasses\n\n\n1 teaspoon salt, plus more if needed\n\n\n1 teaspoon paprika\n\n\n1 teaspoon Aleppo pepper flakes or other red pepper flakes, plus a pinch or so for garnish\n\n\n½ teaspoon cumin\n\n\n½ teaspoon cayenne pepper\n\n\n1 tablespoon chopped Italian parsley for garnish'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a skillet over medium heat. Add walnuts and drizzle with 1 tablespoon olive oil. Cook and stir frequently until walnuts smell toasted and are lightly browned, about 5 minutes. Remove from heat and transfer walnuts to a plate to cool. Reserve 2 or 3 to coarsely chop and use for garnish."},{"recipe_directions":"Place the skillet over medium heat; add 1 tablespoon olive oil. Sprinkle in bread crumbs; cook and stir frequently until crumbs turn golden brown, 3 or 4 minutes. Remove from heat and sprinkle onto plate with walnuts."},{"recipe_directions":"Place peppers in bowl of a food processor. Add walnuts, toasted bread crumbs, garlic, lemon juice, pomegranate molasses, salt, paprika, Aleppo pepper flakes, cumin, and cayenne pepper. Drizzle with remaining 2 tablespoons olive oil."},{"recipe_directions":"Pulse on and off, scraping mixture down occasionally, until mixture is fairly fine and smooth. Transfer to a bowl; cover and refrigerate until chilled, about 2 hours."},{"recipe_directions":"Transfer to a shallow serving bowl. Use the back of a spoon to swirl indentations on the surface to capture the garnishes. Garnish with reserved chopped walnuts, a drizzle of olive oil, pepper flakes, and chopped parsley."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"287\nCalories\n\n\n24g \nFat\n\n\n10g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699641753-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uXTymCYDv1RcoieWLvC0yXJztAI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/290886-aca084a6c6334312b364739e82c1178e.jpg"
@@ -2276,59 +2489,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/137450/lentil-and-green-collard-soup/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Lentil and Green Collard Soup</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons olive oil, divided\n\n\n1 large onion, chopped\n\n\n1 tablespoon salt\n\n\n1 cup dry red lentils, rinsed and drained\n\n\n6 cups water\n\n\n1 bunch collard greens - rinsed, stemmed and thinly sliced\n\n\n2 tablespoons minced garlic\n\n\n1 tablespoon ground cumin\n\n\n1 teaspoon ground cinnamon\n\n\n⅓ cup lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons olive oil, divided\n\n\n1 large onion, chopped\n\n\n1 tablespoon salt\n\n\n1 cup dry red lentils, rinsed and drained\n\n\n6 cups water\n\n\n1 bunch collard greens - rinsed, stemmed and thinly sliced\n\n\n2 tablespoons minced garlic\n\n\n1 tablespoon ground cumin\n\n\n1 teaspoon ground cinnamon\n\n\n⅓ cup lemon juice'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat 1 tablespoon olive oil in a large saucepan over medium heat. Stir in onion and salt; cook until softened and translucent, about 4 minutes. Stir in lentils and cook for 1 minute. Pour in water, increase the heat to high, and bring to a boil. Reduce the heat to medium-low, cover, and simmer until lentils are tender, about 15 minutes."},{"recipe_directions":"While the lentils are cooking, heat remaining 2 tablespoons oil in a large skillet over medium heat. Add collard greens and cook until wilted, about 10 minutes."},{"recipe_directions":"When lentils are tender, stir in collard greens, garlic, cumin, and cinnamon; simmer for 10 minutes."},{"recipe_directions":"Stir in lemon juice before serving."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Lentil Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"307\nCalories\n\n\n12g \nFat\n\n\n39g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699641756-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qO45a8ME_kdGdvIUUazf2CqjhcI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3162572-mediterranean-meat-pies-sfeeha-jenny-4x3-1-0614811d63864e5ea22fe0095e612042.jpg"
@@ -2342,59 +2551,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/216879/mediterranean-meat-pies-sfeeha/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Mediterranean Meat Pies (Sfeeha)</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n45 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n18 \n\n\nYield:\n36 small pies"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound ground beef\n\n\n½ pound ground lamb\n\n\n1  white onion, finely chopped\n\n\n¾ cup pine nuts\n\n\n⅛ teaspoon ground cinnamon\n\n\n  salt and ground black pepper to taste\n\n\n⅓ cup lemon juice\n\n\n2 (17.3 ounce) packages frozen puff pastry, thawed\n\n\n1  egg, beaten"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound ground beef\n\n\n½ pound ground lamb\n\n\n1  white onion, finely chopped\n\n\n¾ cup pine nuts\n\n\n⅛ teaspoon ground cinnamon\n\n\n  salt and ground black pepper to taste\n\n\n⅓ cup lemon juice\n\n\n2 (17.3 ounce) packages frozen puff pastry, thawed\n\n\n1  egg, beaten'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a large skillet over medium-high heat. Stir in ground beef, ground lamb, onion, pine nuts, cinnamon, and salt and black pepper. Cook and stir until meat is crumbly, evenly browned, and no longer pink. Drain and discard any excess grease."},{"recipe_directions":"Stir in lemon juice. Taste and adjust the seasonings. Let the meat mixture cool."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Lightly grease a baking sheet or line it with parchment paper."},{"recipe_directions":"Roll out thawed pastry sheets to about 1/8 inch thick. Using a sharp 3-inch round cookie cutter, cut out at least 9 rounds per sheet. Lightly brush the inside edges with a little water, and place about 2 teaspoons of filling into the middle of each round. Fold the pastry round in half to cover the filling and seal the edges well. Transfer to the prepared baking sheet and repeat with the remaining dough circles."},{"recipe_directions":"Brush each pie with a little egg wash. Bake in the preheated oven until golden brown, 15 to 20 minutes."},{"recipe_directions":"For following halal rules, look for puff pastry dough that isn't made with lard."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"412\nCalories\n\n\n29g \nFat\n\n\n26g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699641761-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KjbQgpZeMkVms_c-V3-Zvxu89wE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1110704-6f9499ac711049e2b5121a7e9bd05c9d.jpg"
@@ -2407,59 +2612,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223354/lebanese-lemon-lentil-soup/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Lebanese Lemon Lentil Soup</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 30 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1 large yellow onion, diced\n\n\n2 stalks celery with leaves, diced\n\n\n2  carrots, diced\n\n\n1 ½ teaspoons minced garlic\n\n\n6 cups water\n\n\n2 cups French green lentils \n\n\n4 tablespoons chopped fresh parsley, divided\n\n\n1 tablespoon salt, or more to taste \n\n\n1 tablespoon ground coriander\n\n\n1 tablespoon ground cumin\n\n\n1 ½ teaspoons ground black pepper\n\n\n½ teaspoon cayenne pepper\n\n\n1 cup all-purpose flour (Optional)\n\n\n¼ cup butter (Optional)\n\n\n1  lemon, cut into wedges\n\n\n  freshly ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 large yellow onion, diced\n\n\n2 stalks celery with leaves, diced\n\n\n2  carrots, diced\n\n\n1 ½ teaspoons minced garlic\n\n\n6 cups water\n\n\n2 cups French green lentils \n\n\n4 tablespoons chopped fresh parsley, divided\n\n\n1 tablespoon salt, or more to taste \n\n\n1 tablespoon ground coriander\n\n\n1 tablespoon ground cumin\n\n\n1 ½ teaspoons ground black pepper\n\n\n½ teaspoon cayenne pepper\n\n\n1 cup all-purpose flour (Optional)\n\n\n¼ cup butter (Optional)\n\n\n1  lemon, cut into wedges\n\n\n  freshly ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a large heavy-bottomed pot over medium heat. Cook and stir onion, celery, and carrots until slightly tender, about 5 minutes. Add garlic; cook and stir until fragrant, 30 seconds."},{"recipe_directions":"Add water, lentils, 2 tablespoons fresh parsley, salt, coriander, cumin, black pepper, and cayenne pepper; stir to incorporate. Cover and simmer until lentils are tender, stirring occasionally, for 1 1/2 hours."},{"recipe_directions":"Whisk flour and butter together in a small saucepan over medium-low heat; stir constantly until thickened and paste-like, about 10 minutes. Reduce heat to low, stirring every 2 to 3 minutes, until light brown, about 20 more minutes."},{"recipe_directions":"Whisk flour paste into finished soup, a spoonful at a time, until smooth and creamy. Serve with lemon wedges, remaining 2 tablespoons parsley, and a sprinkle of freshly ground pepper."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Lentil Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"268\nCalories\n\n\n8g \nFat\n\n\n38g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699641765-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/oDneTT7g-yyjdaPvTJ5tpe1iTNY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/111161-635223e57e654d249b7c9b79fdf6eaea.jpg"
@@ -2472,59 +2673,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/89002/authentic-lebanese-fattoush/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Authentic Lebanese Fattoush</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup water\n\n\n1 teaspoon cornstarch\n\n\n⅓ cup lemon juice\n\n\n2 cloves garlic, minced\n\n\n2 teaspoons sumac powder\n\n\n  salt and ground black pepper to taste"},{"recipe_ingredients":"1 head romaine lettuce, torn into bite-size pieces\n\n\n2 large tomatoes, diced\n\n\n1  green bell pepper, seeded and chopped\n\n\n1 medium cucumber, diced\n\n\n1 cup chopped purslane\n\n\n4  green onions, chopped\n\n\n½ (5 ounce) package arugula\n\n\n¼ cup chopped fresh flat-leaf parsley\n\n\n¼ cup chopped fresh mint\n\n\n4  pita rounds, toasted and torn into pieces"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup water\n\n\n1 teaspoon cornstarch\n\n\n⅓ cup lemon juice\n\n\n2 cloves garlic, minced\n\n\n2 teaspoons sumac powder\n\n\n  salt and ground black pepper to taste'}, {'recipe_ingredients': '1 head romaine lettuce, torn into bite-size pieces\n\n\n2 large tomatoes, diced\n\n\n1  green bell pepper, seeded and chopped\n\n\n1 medium cucumber, diced\n\n\n1 cup chopped purslane\n\n\n4  green onions, chopped\n\n\n½ (5 ounce) package arugula\n\n\n¼ cup chopped fresh flat-leaf parsley\n\n\n¼ cup chopped fresh mint\n\n\n4  pita rounds, toasted and torn into pieces'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make dressing: Stir together water and cornstarch in a small saucepan over medium-high heat until thickened. Remove from heat and mix in lemon juice, garlic, sumac, salt, and pepper. Refrigerate until ready to use."},{"recipe_directions":"Assemble salad: Combine lettuce, tomatoes, bell pepper, cucumber, purslane, green onions, arugula, parsley, and mint in a large serving bowl. Toss with dressing and serve with toasted pita."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Green Salad Recipes"},{"recipe_tags":"Romaine Lettuce Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"235\nCalories\n\n\n2g \nFat\n\n\n49g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699641769-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/c9cORDIHXYMkQ3ILxqduv412NLg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(575x0:577x2):format(webp)/9443774-49bed54b1ea8483aaa727bf8e03aed12.jpg"
@@ -2537,59 +2734,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/103733/toum/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Toum</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cloves garlic, peeled\n\n\n1 pinch salt\n\n\n¼ cup vegetable oil, or as needed\n\n\n1  lemon, juiced"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cloves garlic, peeled\n\n\n1 pinch salt\n\n\n¼ cup vegetable oil, or as needed\n\n\n1  lemon, juiced'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Crush garlic in a mortar and pestle with a generous pinch of salt until smooth. Mix in oil as needed, a teaspoon at a time, until mixture is emulsified. Stir in the lemon juice."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"87\nCalories\n\n\n9g \nFat\n\n\n3g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699641773-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uXCmR5EzYKtMkM_cSF5ms5tP3U8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/628807-4c6a14bb52b248c8826a54f02b101165.jpg"
@@ -2602,59 +2795,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/140413/lebanese-easter-cookies/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Lebanese Easter Cookies</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 2 hrs\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 10 hrs 10 mins\n\n\nServings:\n60 \n\n\nYield:\n60 cookies"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds butter\n\n\n4 cups white sugar\n\n\n1 cup water\n\n\n9 cups semolina flour\n\n\n8 cups all-purpose flour\n\n\n1 ½ tablespoons quick rise yeast\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon freshly grated nutmeg\n\n\n½ teaspoon ground cloves\n\n\n½ teaspoon ground cardamom\n\n\n½ teaspoon allspice\n\n\n1 teaspoon ground mahleb\n\n\n¼ cup black sesame seeds\n\n\n¼ cup rose water\n\n\n¼ cup orange flower water\n\n\n1 cup warm water"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds butter\n\n\n4 cups white sugar\n\n\n1 cup water\n\n\n9 cups semolina flour\n\n\n8 cups all-purpose flour\n\n\n1 ½ tablespoons quick rise yeast\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon freshly grated nutmeg\n\n\n½ teaspoon ground cloves\n\n\n½ teaspoon ground cardamom\n\n\n½ teaspoon allspice\n\n\n1 teaspoon ground mahleb\n\n\n¼ cup black sesame seeds\n\n\n¼ cup rose water\n\n\n¼ cup orange flower water\n\n\n1 cup warm water'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a small saucepan, melt butter over low heat. Stir in sugar and water; continue stirring to dissolve sugar. Do not boil. Remove from heat and let cool slightly."},{"recipe_directions":"Measure flours into a large bowl. Add melted butter, yeast, spices, and sesame seeds; stir slowly for about 10 minutes to thoroughly blend ingredients. Cover the bowl with plastic wrap and leave dough in bowl to rest for 1 hour."},{"recipe_directions":"Prepare 3 baking sheets with cooking spray or parchment paper. In a small bowl, pour the rose water and orange flower water. Pour the warm water in to a second small bowl. Working on a floured board, pull off about 1 cup of dough. Dip your fingers first in the warm water and knead the dough a few minutes; then dip the dough in the flower water and knead it again until the dough is soft and pliable."},{"recipe_directions":"Use the palm of your hand to roll the ball of dough into a rope 12 inches long and 1 inch in diameter. Cut the rope in half and make a wreath-shaped cookie with each one, pinching the ends together. Place on a baking sheet. When you have filled a baking sheet, cover the cookies with a clean towel and refrigerate overnight to rest the dough."},{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Remove baking sheets from the refrigerator to warm up while the oven preheats. Bake cookies in the preheated oven until golden brown, about 15 minutes."},{"recipe_directions":"Mahleb is a spice made from ground black cherry pits (from a type of tree that grows in the Near East, not North America). Used to flavor baked goods with a subtle, sweet/nutty taste, it can be found in Greek or Middle Eastern ethnic markets."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"198\nCalories\n\n\n10g \nFat\n\n\n26g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699641776-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Te7ub4Qo5n9TNitNP1hXADuavS4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1428x0:1430x2):format(webp)/7802374-4ff14ae0afc34d2eb2f070133f5732e2.jpg"
@@ -2667,59 +2856,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279214/instant-pot-lebanese-lentil-soup-shorbat-adas/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Instant Pot Lebanese Lentil Soup (Shorbat Adas)</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons extra-virgin olive oil\n\n\n1  onion, finely chopped\n\n\n1  Yukon Gold potato, peeled and diced\n\n\n1  carrot, peeled and diced\n\n\n1  tomato, diced\n\n\n2  celery ribs, diced \n\n\n1 clove garlic, chopped, or more to taste\n\n\n1 ½ teaspoons kosher salt\n\n\n¾ teaspoon ground cumin\n\n\n⅛ teaspoon ground cinnamon\n\n\n⅛ teaspoon allspice\n\n\n4 cups low-sodium vegetable broth\n\n\n2 cups water\n\n\n1 ½ cups red lentils\n\n\n2  lemons\n\n\n2  pita bread, cut into squares\n\n\n  cooking spray\n\n\n1 pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons extra-virgin olive oil\n\n\n1  onion, finely chopped\n\n\n1  Yukon Gold potato, peeled and diced\n\n\n1  carrot, peeled and diced\n\n\n1  tomato, diced\n\n\n2  celery ribs, diced \n\n\n1 clove garlic, chopped, or more to taste\n\n\n1 ½ teaspoons kosher salt\n\n\n¾ teaspoon ground cumin\n\n\n⅛ teaspoon ground cinnamon\n\n\n⅛ teaspoon allspice\n\n\n4 cups low-sodium vegetable broth\n\n\n2 cups water\n\n\n1 ½ cups red lentils\n\n\n2  lemons\n\n\n2  pita bread, cut into squares\n\n\n  cooking spray\n\n\n1 pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Turn on a multi-functional pressure cooker (such as Instant Pot) and select Sauté function. Heat olive oil in the pot. Add onion, potato, carrot, tomato, celery, and garlic; cook and stir until slightly softened, 3 to 5 minutes. Sprinkle salt, cumin, cinnamon, and allspice over vegetables and stir until fragrant."},{"recipe_directions":"Pour in broth, water, and lentils. Close and lock the lid. Select high pressure according to the manufacturer's instructions; set the timer for 10 minutes. Allow 10 to 15 minutes for pressure to build."},{"recipe_directions":"Meanwhile, spread pita squares on a lined baking sheet. Spray with cooking spray and season with salt."},{"recipe_directions":"Bake in the preheated oven until toasted, about 8 minutes."},{"recipe_directions":"Release pressure carefully using the quick-release method according to the manufacturer's instructions, about 5 minutes. Unlock and remove the lid. Puree soup using an immersion blender. Stir in juice of 1 lemon."},{"recipe_directions":"Divide soup among bowls and scatter a handful of pita chips over each. Cut second lemon into wedges and serve alongside."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Lentil Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"456\nCalories\n\n\n9g \nFat\n\n\n77g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699641779-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CuboxxjRvcPpIIxksxGvElQhAk0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(936x0:938x2):format(webp)/8593404-2d1c6dca3705400c9231db20aa2ae1bf.jpg"
@@ -2732,59 +2917,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/234775/chard-lentil-soup-lebanese-style/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Chard Lentil Soup, Lebanese-Style</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 cups water\n\n\n1 cup large brown lentils, rinsed\n\n\n4 cups thinly sliced Swiss chard\n\n\n4 large potatoes, cut into cubes\n\n\n1 cup freshly squeezed lemon juice\n\n\n6 cloves garlic, crushed (or more to taste)\n\n\n1 tablespoon salt, or to taste\n\n\n½ cup olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 cups water\n\n\n1 cup large brown lentils, rinsed\n\n\n4 cups thinly sliced Swiss chard\n\n\n4 large potatoes, cut into cubes\n\n\n1 cup freshly squeezed lemon juice\n\n\n6 cloves garlic, crushed (or more to taste)\n\n\n1 tablespoon salt, or to taste\n\n\n½ cup olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water to a boil in a large pot. Cook lentils in boiling water until beginning to soften, 8 to 10 minutes. Add chard; continue cooking until wilted, about 5 minutes."},{"recipe_directions":"Add potatoes to the boiling water, reduce heat to medium-low, cover the pot, and cook until the potatoes are completely cooked, about 12 minutes."},{"recipe_directions":"Mix lemon juice, crushed garlic, and salt together in a bowl; add to the pot. Continue to cook at a simmer another 5 minutes. Stir olive oil into the mixture. Increase heat to high and cook another 1 to 2 minutes."},{"recipe_directions":"Taste the soup while cooking and tune the garlic, salt, and lemon juice according to taste."},{"recipe_directions":"If Swiss chard is not available, you can substitute with collard greens."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"361\nCalories\n\n\n14g \nFat\n\n\n51g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699641782-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gj10QiQ-q6ITFqqp0PHS7lBWsSo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(959x0:961x2):format(webp)/5121966-22b4a3364cea41f0965768fed418a8f4.jpg"
@@ -2797,59 +2978,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262666/homemade-zaatar/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Homemade Za'atar</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n3 mins\n\n\nTotal Time:\n8 mins\n\n\nServings:\n6 \n\n\nYield:\n6 tablespoons"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons sesame seeds\n\n\n3 tablespoons fresh thyme leaves\n\n\n1 tablespoon sumac powder\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons sesame seeds\n\n\n3 tablespoons fresh thyme leaves\n\n\n1 tablespoon sumac powder\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Toast sesame seeds in a dry skillet over medium heat until just golden, about 3 to 5 minutes."},{"recipe_directions":"Combine sesame seeds, thyme leaves, sumac, and salt in a bowl and stir until well combined."},{"recipe_directions":"Za'atar spice mix can be stored in the refrigerator for up to 1 week."},{"recipe_directions":"For a simple and delicious way to use za'atar, sprinkle the spice mixture over a plate of labneh and drizzle with olive oil. Serve with pita bread as a dip."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"29\nCalories\n\n\n2g \nFat\n\n\n2g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699641786-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TaFrpLTrfq0A4xGlwWXyFonQlMU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6100016-lebanese-white-coffee-Buckwheat-Queen-4x3-1-acb8d972ee5d42358d8afaba865d1f11.jpg"
@@ -2861,59 +3038,55 @@
 Lebanese White Coffee</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/269627/lebanese-white-coffee/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Lebanese White Coffee</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n2 mins\n\n\nTotal Time:\n7 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon orange blossom water\n\n\n1 cup boiling water\n\n\n1 teaspoon acacia honey\n\n\n2  orange blossoms"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon orange blossom water\n\n\n1 cup boiling water\n\n\n1 teaspoon acacia honey\n\n\n2  orange blossoms'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Divide orange blossom water between 2 tea cups. Add 1/2 cup boiling water to each cup and stir."},{"recipe_directions":"Stir 1/2 teaspoon honey into each cup. Float a piece of orange blossom in each cup. Serve hot."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"15\nCalories\n\n\n4g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699641790-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/z1M-5n9ujB8LPtvNHa6uSZ28Llo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/319421-83a6bd823e6f41c3a97a8b3a5f24e344.jpg"
@@ -2924,59 +3097,55 @@
 Za'atar Bread</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/267826/zaatar-bread/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Za'atar Bread</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n16 \n\n\nYield:\n16 pieces"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (.25 ounce) package active dry yeast\n\n\n2 cups warm water (110 degrees F (43 degrees C))\n\n\n6 cups bread flour\n\n\n1 tablespoon salt\n\n\n4 tablespoons za'atar\n\n\n4 tablespoons olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 (.25 ounce) package active dry yeast\n\n\n2 cups warm water (110 degrees F (43 degrees C))\n\n\n6 cups bread flour\n\n\n1 tablespoon salt\n\n\n4 tablespoons za'atar\n\n\n4 tablespoons olive oil"}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Dissolve yeast in warm water in a large bowl. Mix in 3 cups flour and salt. Stir in remaining flour, 1/2 cup at a time, beating well after each addition."},{"recipe_directions":"Turn dough out onto a lightly floured work surface. Knead until smooth, about 10 minutes. Place dough in a greased bowl; turn to coat with oil. Cover and let rise in a warm place until doubled, about 1 hour."},{"recipe_directions":"Preheat the oven to 500 degrees F (260 degrees C)."},{"recipe_directions":"Divide dough into 16 equal pieces and form into rounds. Roll into 1/4-inch-thick circles. Poke rounds with your fingers to create small indentations."},{"recipe_directions":"Mix za'atar and olive oil together in a small bowl. Spread over circles. Place on ungreased baking sheets."},{"recipe_directions":"Bake in the preheated oven until dough is golden brown, 5 to 6 minutes."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"197\nCalories\n\n\n4g \nFat\n\n\n34g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699641793-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-ASZj_U5fbU_L7SnquBP2Vh4AIE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3707126-d4730cb89f9a44daa1ebe918b59a1ef6.jpg"
@@ -2989,59 +3158,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244796/labneh-lebanese-yogurt/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Labneh (Lebanese Yogurt)</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n12 \n\n\nYield:\n1 1/2 cups"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups Greek yogurt\n\n\n¼ cup extra-virgin olive oil\n\n\n1 tablespoon chopped fresh mint\n\n\n1 tablespoon chopped fresh dill\n\n\n½ teaspoon kosher salt, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups Greek yogurt\n\n\n¼ cup extra-virgin olive oil\n\n\n1 tablespoon chopped fresh mint\n\n\n1 tablespoon chopped fresh dill\n\n\n½ teaspoon kosher salt, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix Greek yogurt, olive oil, mint, dill, and kosher salt together in a bowl. Cover and refrigerate up to 12 hours."},{"recipe_directions":"Using a very good olive oil is crucial to the flavor."},{"recipe_directions":"Herbs can be any that you prefer. I like to use dill and mint."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"75\nCalories\n\n\n7g \nFat\n\n\n1g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699641796-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lmzW558aNfJtw_p1aRDsB2CzdxE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4500866-1c34643967f8483a861df02fc0a4033d.jpg"
@@ -3054,59 +3219,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/143265/middle-eastern-kibbeh/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Middle Eastern Kibbeh</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n12 mins\n\n\nTotal Time:\n32 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅔ cup medium coarse bulgur\n\n\n1 cup fresh mint leaves\n\n\n1 large onion, chopped\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon ground allspice\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n1 ½ pounds lean ground lamb\n\n\n3 tablespoons olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅔ cup medium coarse bulgur\n\n\n1 cup fresh mint leaves\n\n\n1 large onion, chopped\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon ground allspice\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n1 ½ pounds lean ground lamb\n\n\n3 tablespoons olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place bulgur in a microwave-safe bowl and cover with water just to the top of the bulgur. Place in the microwave and cook on High 1 to 2 minutes until bulgur is swollen and the water is absorbed. Toss briefly and allow to stand until cool."},{"recipe_directions":"Place the mint leaves in the bowl of a food processor. Process, gradually adding onion through the feed tube, until both mint and onion are finely chopped. Stir the mint-onion mixture into the bulgur, with the cumin, allspice, salt, and pepper. Stir the bulgur mixture into the ground lamb and mix thoroughly. Using damp hands, shape the lamb mixture into small, palm-sized patties."},{"recipe_directions":"Place the olive oil in a skillet and heat over medium heat. Add the kibbeh patties and cook until outside is golden brown and center is cooked through, turning once, about 6 minutes on each side."},{"recipe_directions":"Kibbeh can also be baked in the oven. Preheat oven to 350 degrees F (175 degrees C). Press the lamb mixture evenly 3/4 to 1 inch thick into an 8x8 inch pan. Drizzle 3 tablespoons olive oil over the top. Bake in preheated oven until the top is light brown, 35 to 40 minutes depending on thickness. Cool, cut into diamond pieces while still in the pan, and serve."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Israeli"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"159\nCalories\n\n\n10g \nFat\n\n\n7g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699641799-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8a2CBcJ8Ur_kdeYFMevhk2oo8ok=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/261000-72a6e56edd414b9f9bb75d71be4ea2e4.jpg"
@@ -3119,59 +3280,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/83303/labneh-lebanese-cream-cheese/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Labneh (Lebanese Cream Cheese)</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n1 day\n\n\nTotal Time:\n1 day 5 mins\n\n\nServings:\n32 \n\n\nYield:\n2 pounds"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"16 cups plain yogurt\n\n\n1 teaspoon salt, or to taste\n\n\n¼ cup olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '16 cups plain yogurt\n\n\n1 teaspoon salt, or to taste\n\n\n¼ cup olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Line a large colander with a cheesecloth. Stir salt into the yogurt, and pour the yogurt into the cheesecloth. Set the colander in the sink or bowl to catch the liquid that drains off. Leave to drain for 24 hours."},{"recipe_directions":"After draining for the 24 hours, transfer the resulting cheese to a bowl. Stir in the olive oil. Store in a covered container in the refrigerator."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Cheese Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"92\nCalories\n\n\n4g \nFat\n\n\n9g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699641802-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/piuSbcHvO0aaG7plmT9JV9rhgKU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4485786-3d35713895924b61815a036c5fcdf5c0.jpg"
@@ -3184,59 +3341,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257328/lebanese-chicken-shawarma/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Lebanese Chicken Shawarma</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup plain yogurt\n\n\n¼ cup lemon juice\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon tomato paste\n\n\n3 cloves garlic, minced\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon ground coriander\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon red pepper flakes\n\n\n2 pounds skinless, boneless chicken breasts, cut into 1/2-inch strips"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup plain yogurt\n\n\n¼ cup lemon juice\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon tomato paste\n\n\n3 cloves garlic, minced\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon ground coriander\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon red pepper flakes\n\n\n2 pounds skinless, boneless chicken breasts, cut into 1/2-inch strips'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk yogurt, lemon juice, olive oil, tomato paste, garlic, cumin, coriander, salt, pepper, and red pepper flakes together in a bowl. Mix in chicken strips. Cover bowl with plastic wrap and place in the refrigerator to marinate, 8 hours to overnight."},{"recipe_directions":"Set oven rack about 6 inches from the heat source and preheat the oven's broiler."},{"recipe_directions":"Remove chicken from the bowl and arrange in a single layer on a broiling pan. Discard excess marinade."},{"recipe_directions":"Broil chicken, turning once, until juices run clear, about 10 minutes. An instant-read thermometer inserted into the center should read at least 165 degrees F (74 degrees C)."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of marinade ingredients. The actual amount of marinade consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"365\nCalories\n\n\n13g \nFat\n\n\n8g \nCarbs\n\n\n51g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699641805-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/89VAMkMfuCNC_N25CYNP6kezl34=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(449x0:451x2):format(webp)/arabicdishesandmeze_398524-5408e94bab5742c6a490912415cc52fb.jpg"
@@ -3248,59 +3401,55 @@
 Plan a Lebanese Feast for Your Next Dinner Party</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/article/plan-lebanese-feast-next-dinner-party/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Plan a Lebanese Feast for Your Next Dinner Party</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Located on the coastline of the Mediterranean Sea, Lebanon may be the smallest country in the Middle East, but it packs a powerful culinary punch. Lebanese food is the perfect example of the type of delicious, nourishing and healthy foods being promoted by those who follow the popular Mediterranean Diet."},{"recipe_directions":"Is Lebanese cuisine the next big thing? According to Maeve Webster, president of Menu Matters, a consultancy focused on helping the food industry understand trends, \"It's a cuisine that carries a well-deserved healthy halo, because it uses any type of fat sparingly, has a very small presence of red meat (and then usually healthier and more sustainable choices like lamb or goat) and relies far more heavily on lean protein (particularly chicken), as well as plant-based proteins. It's a cuisine that fits well with produce-focused culinary innovation.\""},{"recipe_directions":"Two Favorites"},{"recipe_directions":"You're already probably very familiar with two dishes that are a mainstay of Lebanese cuisines -- tabbouleh and hummus. Try this hugely popular staff pick version of Tabbouleh. Or add a modern twist by teaming your Tabbouleh with Edamame."},{"recipe_directions":"If you've been buying hummus from the grocery store, you've been missing out on how easy and delicious it can be to prepare at home. Here's a version of Hummus that's easy to whip up in a blender or food processor. To make it as a main dish, try this Hummus Casserole, which layers the garbanzo puree with pita pieces, pine nuts, lemon juice, parsley, and ground beef."},{"recipe_directions":"Meet Mezze"},{"recipe_directions":"The trend for shareable platters and snacks as meals just keeps growing, and Lebanese cuisine is a perfect fit for that focus. It's easy to pull together a few dishes and enjoy a Lebanese mezze, a word derived from mazeh, the Farsi word for \"taste.\""},{"recipe_directions":"\"Mezze is the Lebanese form of tapas, and it's great to enjoy a series of small plates served as appetizers or drinks accompaniment with a few people across many plates,\" Webster says."},{"recipe_directions":"Get started by making your own version of Lebanese cream cheese, called Labneh. It's a tangy, creamy accompaniment for dunking, dipping and sharing. Its perfect served with Manaaeesh Flatbread made with Za'atar, a spice blend of thyme, toasted sesame seeds, and sumac powder that's common in Lebanese kitchens. According to the recipe developer, it's \"a blend of many spices that will make your taste buds sing.\""},{"recipe_directions":"Or try Fattoush, a light salad served with crunchy fried pita chips. Don't miss out on these crispy appetizer bites made with ground beef and lamb."},{"recipe_directions":"Entrees"},{"recipe_directions":"As a main course, consider Lamb-Stuffed Zucchini (Koosa), which features a cinnamon-spiced tomato sauce. Or try Kibbeh, made from a blend of cooked bulgur wheat, mint and chopped onions combines with ground lamb and served with tahini. Lamb Shawarma is another popular choice, made from yogurt-marinated strips of lamb."},{"recipe_directions":"Sweet Endings"},{"recipe_directions":"A delicious platter of Namoora (Basboosa) is the sweet, golden end to many traditional Lebanese meal. Or consider these authentic-tasting Arabic cookies."},{"recipe_directions":"Check out all the tangy, tasty, and satisfying options in our collection of Lebanese Recipes."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Kitchen Tips"},{"recipe_tags":"How To"},{"recipe_tags":"Global Kitchen"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699641809-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8ycK5XSzXXKxviC6zVO-N1dsta4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1446x0:1448x2):format(webp)/7618972-4ce1a7f41e5d4a81a366c7686c430f14.jpg"
@@ -3313,59 +3462,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278238/maamoul-lebanese-date-cookies/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Ma'amoul (Lebanese Date Cookies)</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 8 hrs 20 mins\n\n\nTotal Time:\n 9 hrs 35 mins\n\n\nServings:\n48 \n\n\nYield:\n4 dozen"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups semolina flour\n\n\n1 cup all-purpose flour\n\n\n½ teaspoon ground mahlab\n\n\n½ teaspoon salt\n\n\n1 cup clarified butter, at room temperature\n\n\n5 tablespoons milk\n\n\n2 tablespoons white sugar\n\n\n1 teaspoon active dry yeast\n\n\n4 tablespoons orange blossom water, or more as needed\n\n\n10 tablespoons date paste (such as Ziyad®), cut into small pieces\n\n\n2 tablespoons powdered sugar, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups semolina flour\n\n\n1 cup all-purpose flour\n\n\n½ teaspoon ground mahlab\n\n\n½ teaspoon salt\n\n\n1 cup clarified butter, at room temperature\n\n\n5 tablespoons milk\n\n\n2 tablespoons white sugar\n\n\n1 teaspoon active dry yeast\n\n\n4 tablespoons orange blossom water, or more as needed\n\n\n10 tablespoons date paste (such as Ziyad®), cut into small pieces\n\n\n2 tablespoons powdered sugar, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix semolina flour, all-purpose flour, mahlab, and salt together in a large bowl. Work clarified butter into the dry ingredients with your fingertips until thoroughly incorporated. Cover bowl and let dough rest at room temperature, 8 hours to overnight."},{"recipe_directions":"Pour milk into a microwave-safe bowl. Microwave until just warm, about 15 seconds. Stir in sugar and yeast until dissolved. Let stand until foamy, about 5 minutes."},{"recipe_directions":"Pour yeast mixture and orange blossom water over the dough and mix until evenly moistened. Pinch off a piece of dough and roll into a ball; it should hold its shape without cracking. Add more milk or orange blossom water if needed. Cover and let rest for 15 minutes."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line 2 baking sheets with parchment paper or silicone baking mats."},{"recipe_directions":"Sprinkle some flour over the ma'amoul molds and tap out the excess. Pinch off a walnut-sized piece of dough and roll into a ball. Press your thumb into the ball to create space for the filling. Work the edges with your fingers so the sides are even and fairly thin. Drop in a piece of date paste and pinch dough over it to seal."},{"recipe_directions":"Place cookie into the mold cavity seam-side up. Press down so that the top is flush with edges of the mold. Trim off any excess dough. Invert the mold and tap it against your work surface to release the cookie. Repeat with remaining dough and date paste, arranging cookies 1 inch apart on the baking sheets."},{"recipe_directions":"Bake in the preheated oven, 1 baking sheet at a time, until edges and bottoms are golden but tops are still mostly pale, about 15 minutes."},{"recipe_directions":"Sift powdered sugar over the cookies while still slightly warm. Let cool completely. Store in an airtight container at room temperature."},{"recipe_directions":"You can find the wooden molds (and any of the specialized ingredients) online or in Middle Eastern markets."},{"recipe_directions":"A mix of orange blossom water and rosewater is traditional. I didn't use rosewater because I had run out, but I didn't miss it."},{"recipe_directions":"See \"How to Make Clarified Butter\" on Allrecipes."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"57\nCalories\n\n\n4g \nFat\n\n\n4g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699641812-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fR0x7-QaB-xyazCWCFjlOzknSG0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/9325729-0e94617533f84916a6e9ae166ecaf647.jpg"
@@ -3378,59 +3523,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214029/lamb-shawarma/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Lamb Shawarma</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n 12 hrs\n\n\nTotal Time:\n 12 hrs 50 mins\n\n\nServings:\n8 \n\n\nYield:\n8 shawarmas"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup plain yogurt\n\n\n¼ cup water\n\n\n2 tablespoons fresh lemon juice\n\n\n1 tablespoon distilled white vinegar\n\n\n1 tablespoon olive oil\n\n\n½ cup chopped onion\n\n\n2 cloves garlic, minced\n\n\n1 tablespoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon ground cumin\n\n\n⅛ teaspoon ground nutmeg\n\n\n⅛ teaspoon ground cloves\n\n\n¾ teaspoon ground mace\n\n\n1 teaspoon cayenne pepper\n\n\n5 pounds boneless lamb shoulder, cut into 1/4-inch-thick strips"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup plain yogurt\n\n\n¼ cup water\n\n\n2 tablespoons fresh lemon juice\n\n\n1 tablespoon distilled white vinegar\n\n\n1 tablespoon olive oil\n\n\n½ cup chopped onion\n\n\n2 cloves garlic, minced\n\n\n1 tablespoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon ground cumin\n\n\n⅛ teaspoon ground nutmeg\n\n\n⅛ teaspoon ground cloves\n\n\n¾ teaspoon ground mace\n\n\n1 teaspoon cayenne pepper\n\n\n5 pounds boneless lamb shoulder, cut into 1/4-inch-thick strips'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the yogurt, water, lemon juice, vinegar, olive oil, onion, and garlic into a large mixing bowl. Whisk in the salt, black pepper, cumin, nutmeg, clove, mace, and cayenne pepper until evenly blended. Mix in the lamb strips to coat. Cover the bowl with plastic wrap, and marinate in the refrigerator 12 to 24 hours (the longer the better)."},{"recipe_directions":"Heat a large skillet over high heat. Cook the lamb strips in a single layer in batches until the fat melts and the meat has browned and is no longer pink on the inside, about 5 minutes, turning occasionally."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"376\nCalories\n\n\n27g \nFat\n\n\n3g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699641816-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3lmCx7Ntp1QJbHoQmyniNXNoaH8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x629:601x631):format(webp)/587368-lebanese-chicken-and-potatoes-TTV78-4x3-1-2393889ae8a441f39cd8c383dd91cd25.jpg"
@@ -3444,59 +3585,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/89833/lebanese-chicken-and-potatoes/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Lebanese Chicken and Potatoes</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  cut up chicken pieces\n\n\n8  medium potatoes, peeled and quartered\n\n\n  salt to taste\n\n\n  ground white pepper to taste\n\n\n4 cloves garlic, crushed\n\n\n½ cup extra virgin olive oil\n\n\n1 cup fresh lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  cut up chicken pieces\n\n\n8  medium potatoes, peeled and quartered\n\n\n  salt to taste\n\n\n  ground white pepper to taste\n\n\n4 cloves garlic, crushed\n\n\n½ cup extra virgin olive oil\n\n\n1 cup fresh lemon juice'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 425 degrees F (220 degrees C)."},{"recipe_directions":"Place chicken and potatoes in a large baking dish. Season generously with salt and white pepper."},{"recipe_directions":"In a bowl, stir together garlic, olive oil, and lemon juice. Pour over chicken and potatoes. Cover dish with foil."},{"recipe_directions":"Bake in preheated oven for 30 minutes. Remove foil, increase heat to 475 degrees F (245 degrees C), and cook until chicken and potatoes are golden, about 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"593\nCalories\n\n\n31g \nFat\n\n\n54g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699641819-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3YiPKtjLqiYM4w541mJzigqjKPk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2050985-6127275469bd4d98a50d30de6d385a51.jpg"
@@ -3509,59 +3646,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/52407/chicken-shawarma/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Chicken Shawarma</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n 4 hrs\n\n\nTotal Time:\n 4 hrs 50 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup malt vinegar\n\n\n¼ cup plain yogurt\n\n\n1 tablespoon vegetable oil\n\n\n  salt and pepper to taste\n\n\n1 teaspoon mixed spice\n\n\n¼ teaspoon freshly ground cardamom\n\n\n8  skinless, boneless chicken thighs\n\n\n½ cup tahini\n\n\n¼ cup plain yogurt\n\n\n½ teaspoon minced garlic\n\n\n2 tablespoons lemon juice\n\n\n1 tablespoon olive oil\n\n\n1 tablespoon chopped fresh parsley\n\n\n  salt and pepper to taste\n\n\n4 medium tomatoes, thinly sliced\n\n\n½ cup sliced onion\n\n\n4 cups shredded lettuce\n\n\n8  pita bread rounds"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup malt vinegar\n\n\n¼ cup plain yogurt\n\n\n1 tablespoon vegetable oil\n\n\n  salt and pepper to taste\n\n\n1 teaspoon mixed spice\n\n\n¼ teaspoon freshly ground cardamom\n\n\n8  skinless, boneless chicken thighs\n\n\n½ cup tahini\n\n\n¼ cup plain yogurt\n\n\n½ teaspoon minced garlic\n\n\n2 tablespoons lemon juice\n\n\n1 tablespoon olive oil\n\n\n1 tablespoon chopped fresh parsley\n\n\n  salt and pepper to taste\n\n\n4 medium tomatoes, thinly sliced\n\n\n½ cup sliced onion\n\n\n4 cups shredded lettuce\n\n\n8  pita bread rounds'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a glass baking dish, mix together the malt vinegar, 1/4 cup yogurt, vegetable oil, mixed spice, cardamom, salt and pepper. Place the chicken thighs into the mixture and turn to coat. Cover and marinate in the refrigerator for at least 4 hours or overnight."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). In a small bowl, mix together the tahini, 1/4 cup yogurt, garlic, lemon juice, olive oil, and parsley. Season with salt and pepper, taste, and adjust flavors if desired. Cover and refrigerate."},{"recipe_directions":"Cover the chicken and bake in the marinade for 30 minutes, turning once. Uncover, and cook for an additional 5 to 10 minutes, or until chicken is browned and cooked through. Remove from the dish, and cut into slices."},{"recipe_directions":"Place sliced chicken, tomato, onion, and lettuce onto pita breads. Roll up, and top with the tahini sauce."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Lebanese"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"402\nCalories\n\n\n15g \nFat\n\n\n44g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699641822-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1824/world-cuisine/middle-eastern/lebanese/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QDMvDTRx4tXVBI9m6m6xZsQpFjg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3885541-best-hummus-France-C-4x3-1-46d55643d0ac4a86b8c5028785657b49.jpg"
@@ -3575,42 +3708,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231081/best-hummus/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Best Hummus</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n32 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can garbanzo beans (chickpeas), drained\n\n\n3 tablespoons tahini\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon fresh lemon juice\n\n\n¼ cup water\n\n\n3 cloves garlic, crushed\n\n\n½ teaspoon ground cumin (Optional)\n\n\n1 pinch paprika\n\n\n1 sprig fresh parsley, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can garbanzo beans (chickpeas), drained\n\n\n3 tablespoons tahini\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon fresh lemon juice\n\n\n¼ cup water\n\n\n3 cloves garlic, crushed\n\n\n½ teaspoon ground cumin (Optional)\n\n\n1 pinch paprika\n\n\n1 sprig fresh parsley, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place garbanzo beans, tahini, olive oil, lemon juice, water, garlic, and cumin into a food processor and process until smooth, about 1 minute. Transfer to a bowl and sprinkle top of hummus with paprika and fresh parsley."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Hummus Recipes"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"27\nCalories\n\n\n2g \nFat\n\n\n3g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>